--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1846692.842567208</v>
+        <v>1843919.813820367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5923195.513598082</v>
+        <v>5923195.51359808</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4420484.741569952</v>
+        <v>4420484.741569949</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>217.3237038688194</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>216.9879546339162</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>37.34552337607919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.8406230842454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>110.1864132391289</v>
+        <v>211.6296614683116</v>
       </c>
       <c r="W4" t="n">
         <v>229.9609751381512</v>
@@ -885,7 +885,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>229.9609751381512</v>
+        <v>180.7930048594845</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>24.63996407309834</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>121.8058444417377</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>103.0425043400696</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100.1903889480794</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>219.0801760632872</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>229.9609751381512</v>
+        <v>180.7930048594845</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9609751381512</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>229.9609751381512</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>189.8241328163615</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>30.87380876663925</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>124.1807503368198</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.2698474393481</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>63.40862693702086</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1308,13 +1308,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.9245679252664</v>
       </c>
       <c r="H11" t="n">
-        <v>171.2019486003076</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I11" t="n">
         <v>113.8693593270194</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S13" t="n">
-        <v>80.29096431075878</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>135.4832133064497</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>66.2442787428291</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>290.8530378080415</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>113.8693593270194</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>94.63504029776234</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>196.1071114281788</v>
+        <v>76.19311257242947</v>
       </c>
       <c r="T16" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>136.3794926293698</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1858,7 +1858,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.9683788729818</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>309.9583408737337</v>
@@ -1897,10 +1897,10 @@
         <v>140.6310247591007</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1101823430358</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>209.073792893957</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>81.92276153888788</v>
       </c>
       <c r="I18" t="n">
-        <v>29.31586397878885</v>
+        <v>29.31586397878884</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>94.5921397338392</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0948007089575</v>
       </c>
       <c r="H19" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.4274315204514</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T19" t="n">
-        <v>231.3249981614665</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>154.30376211334</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2098,7 +2098,7 @@
         <v>407.9683788729818</v>
       </c>
       <c r="H20" t="n">
-        <v>309.9583408737337</v>
+        <v>14.02717419515085</v>
       </c>
       <c r="I20" t="n">
         <v>95.98211168159463</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>140.6310247591007</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1101823430358</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>183.8370355867474</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>49.79275779939277</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0948007089575</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.4274315204514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.8847422556688</v>
+        <v>231.3249981614665</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>407.9683788729818</v>
+        <v>64.75111600760468</v>
       </c>
       <c r="H23" t="n">
-        <v>14.02717419515085</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>95.98211168159463</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>140.6310247591007</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U23" t="n">
         <v>253.1101823430358</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>25.60670646647393</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>28.23959977443419</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.0948007089575</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>407.9683788729818</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9583408737337</v>
+        <v>146.5060559183541</v>
       </c>
       <c r="I26" t="n">
-        <v>95.98211168159463</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>342.7370946807268</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.4442104131366</v>
       </c>
       <c r="H28" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.2272451126818</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>231.3249981614665</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V28" t="n">
-        <v>173.170795972873</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>262.2572465183627</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>41.00663773940971</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2812,7 +2812,7 @@
         <v>309.9583408737337</v>
       </c>
       <c r="I29" t="n">
-        <v>95.98211168159463</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>140.6310247591007</v>
       </c>
       <c r="T29" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1101823430358</v>
@@ -2857,7 +2857,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0948007089575</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>117.4274315204514</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.7461512342498</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>231.3249981614665</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.9326664561059</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>186.6575083758224</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>85.65555081691613</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3046,7 +3046,7 @@
         <v>407.9683788729818</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>309.9583408737337</v>
       </c>
       <c r="I32" t="n">
         <v>95.98211168159463</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1101823430358</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.74615123424912</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0948007089575</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>117.4274315204514</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>47.15197302762295</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3274,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>55.34042676924394</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>406.4606471115279</v>
+        <v>407.9683788729818</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9583408737337</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>95.98211168159463</v>
+        <v>95.9821116815946</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>216.6134123014268</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1101823430358</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3365,7 +3365,7 @@
         <v>81.92276153888788</v>
       </c>
       <c r="I36" t="n">
-        <v>29.31586397878884</v>
+        <v>29.31586397878883</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0948007089575</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.2272451126818</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.3249981614665</v>
       </c>
       <c r="U37" t="n">
         <v>282.5584013321949</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>36.32868236974636</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>36.70791543767936</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>64.75111600760469</v>
+        <v>407.9683788729818</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>110.0092858767455</v>
       </c>
       <c r="I38" t="n">
-        <v>95.9821116815946</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>140.6310247591007</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1101823430358</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>137.6447736231748</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>112.6947589933698</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T40" t="n">
         <v>231.3249981614665</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.9683788729818</v>
+        <v>293.2109057794756</v>
       </c>
       <c r="H41" t="n">
-        <v>256.2172390537143</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>32.4995917706576</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.0948007089575</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.4274315204514</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.3249981614665</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>279.2327311762663</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>407.9683788729818</v>
       </c>
       <c r="H44" t="n">
-        <v>309.9583408737337</v>
+        <v>150.0909444605312</v>
       </c>
       <c r="I44" t="n">
-        <v>95.9821116815946</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>140.6310247591007</v>
       </c>
       <c r="T44" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>30.16053770633882</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0948007089575</v>
       </c>
       <c r="H46" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>231.3249981614665</v>
       </c>
       <c r="U46" t="n">
-        <v>232.4028915052259</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>136.4471865464746</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>483.0536185083173</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="C2" t="n">
-        <v>483.0536185083173</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="D2" t="n">
-        <v>250.7698052374575</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="E2" t="n">
-        <v>250.7698052374575</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="F2" t="n">
-        <v>237.9157708078394</v>
+        <v>27.51922948264486</v>
       </c>
       <c r="G2" t="n">
         <v>18.39687801105209</v>
@@ -4333,22 +4333,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>236.8598043922958</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L2" t="n">
-        <v>236.8598043922958</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M2" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N2" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O2" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P2" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
@@ -4360,22 +4360,22 @@
         <v>715.3374317791771</v>
       </c>
       <c r="T2" t="n">
-        <v>715.3374317791771</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U2" t="n">
-        <v>715.3374317791771</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V2" t="n">
-        <v>715.3374317791771</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W2" t="n">
-        <v>715.3374317791771</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X2" t="n">
-        <v>715.3374317791771</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="Y2" t="n">
-        <v>715.3374317791771</v>
+        <v>40.37326391226304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.1822697275596</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="C3" t="n">
-        <v>292.5280392876518</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="D3" t="n">
-        <v>292.5280392876518</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0815483985396</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F3" t="n">
-        <v>156.0815483985396</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G3" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H3" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L3" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M3" t="n">
-        <v>464.5211697790654</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N3" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O3" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P3" t="n">
         <v>919.8439005526046</v>
@@ -4439,22 +4439,22 @@
         <v>895.9268574506692</v>
       </c>
       <c r="T3" t="n">
-        <v>895.9268574506692</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U3" t="n">
-        <v>685.863714129311</v>
+        <v>681.2202947646492</v>
       </c>
       <c r="V3" t="n">
-        <v>685.863714129311</v>
+        <v>681.2202947646492</v>
       </c>
       <c r="W3" t="n">
-        <v>685.863714129311</v>
+        <v>681.2202947646492</v>
       </c>
       <c r="X3" t="n">
-        <v>496.5566364793227</v>
+        <v>681.2202947646492</v>
       </c>
       <c r="Y3" t="n">
-        <v>443.1822697275596</v>
+        <v>681.2202947646492</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9768666986336</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>343.9768666986336</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>343.9768666986336</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>343.9768666986336</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
         <v>18.39687801105209</v>
@@ -4524,16 +4524,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>808.5444932403532</v>
+        <v>706.0765657361283</v>
       </c>
       <c r="W4" t="n">
-        <v>576.2606799694934</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="X4" t="n">
-        <v>343.9768666986336</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.9768666986336</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C5" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D5" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E5" t="n">
-        <v>65.26211651135227</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="F5" t="n">
-        <v>52.40808208173409</v>
+        <v>27.51922948264486</v>
       </c>
       <c r="G5" t="n">
-        <v>43.28573061014132</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H5" t="n">
-        <v>43.28573061014132</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I5" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>52.01424425134721</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M5" t="n">
-        <v>507.3369750248864</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N5" t="n">
-        <v>734.998340411656</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O5" t="n">
-        <v>734.998340411656</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P5" t="n">
-        <v>734.998340411656</v>
+        <v>846.030747080189</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
@@ -4594,25 +4594,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V5" t="n">
-        <v>529.8297430530719</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W5" t="n">
-        <v>529.8297430530719</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X5" t="n">
-        <v>297.5459297822121</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.5459297822121</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426.7955967665829</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="C6" t="n">
-        <v>276.1413663266751</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="D6" t="n">
-        <v>276.1413663266751</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E6" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>701.380974171361</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N6" t="n">
         <v>919.8439005526046</v>
@@ -4670,28 +4670,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>796.8076940457988</v>
       </c>
       <c r="T6" t="n">
-        <v>760.996180350538</v>
+        <v>796.8076940457988</v>
       </c>
       <c r="U6" t="n">
-        <v>760.996180350538</v>
+        <v>796.8076940457988</v>
       </c>
       <c r="V6" t="n">
-        <v>656.912842633296</v>
+        <v>574.2676924168659</v>
       </c>
       <c r="W6" t="n">
-        <v>426.7955967665829</v>
+        <v>344.1504465501527</v>
       </c>
       <c r="X6" t="n">
-        <v>426.7955967665829</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="Y6" t="n">
-        <v>426.7955967665829</v>
+        <v>154.8433689001644</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.77514818495014</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C7" t="n">
-        <v>48.77514818495014</v>
+        <v>818.6414874737366</v>
       </c>
       <c r="D7" t="n">
-        <v>48.77514818495014</v>
+        <v>663.0083743762514</v>
       </c>
       <c r="E7" t="n">
-        <v>48.77514818495014</v>
+        <v>507.4495622354538</v>
       </c>
       <c r="F7" t="n">
-        <v>48.77514818495014</v>
+        <v>350.1236274484268</v>
       </c>
       <c r="G7" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="H7" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I7" t="n">
         <v>48.77514818495014</v>
@@ -4758,19 +4758,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U7" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V7" t="n">
-        <v>466.2669801471112</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W7" t="n">
-        <v>233.9831668762514</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X7" t="n">
-        <v>233.9831668762514</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y7" t="n">
-        <v>233.9831668762514</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.1023522532496</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C8" t="n">
-        <v>728.1023522532496</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D8" t="n">
-        <v>728.1023522532496</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E8" t="n">
-        <v>495.8185389823898</v>
+        <v>272.6570771831229</v>
       </c>
       <c r="F8" t="n">
-        <v>482.9645045527716</v>
+        <v>259.8030427535047</v>
       </c>
       <c r="G8" t="n">
         <v>250.6806912819119</v>
@@ -4807,22 +4807,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L8" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M8" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N8" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
@@ -4840,16 +4840,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V8" t="n">
-        <v>728.1023522532496</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W8" t="n">
-        <v>728.1023522532496</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X8" t="n">
-        <v>728.1023522532496</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y8" t="n">
-        <v>728.1023522532496</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>422.6170066661715</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C9" t="n">
-        <v>422.6170066661715</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D9" t="n">
-        <v>292.5280392876518</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F9" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G9" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L9" t="n">
-        <v>586.8345910043187</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M9" t="n">
-        <v>814.4959563910883</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N9" t="n">
-        <v>814.4959563910883</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O9" t="n">
-        <v>814.4959563910883</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T9" t="n">
-        <v>784.9132234524734</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U9" t="n">
-        <v>784.9132234524734</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="V9" t="n">
-        <v>753.7275580316257</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="W9" t="n">
-        <v>753.7275580316257</v>
+        <v>143.8319793613751</v>
       </c>
       <c r="X9" t="n">
-        <v>753.7275580316257</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y9" t="n">
-        <v>574.4133411071329</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C10" t="n">
-        <v>563.6590979143218</v>
+        <v>818.5612263714449</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0259848168366</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="E10" t="n">
-        <v>343.9768666986337</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F10" t="n">
-        <v>186.6509319116066</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G10" t="n">
-        <v>18.39687801105217</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H10" t="n">
-        <v>18.39687801105217</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I10" t="n">
-        <v>18.39687801105217</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J10" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K10" t="n">
         <v>100.231919120994</v>
@@ -4971,7 +4971,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M10" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N10" t="n">
         <v>633.8407713642671</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1153.884204769486</v>
+        <v>1799.041153305921</v>
       </c>
       <c r="C11" t="n">
-        <v>1153.884204769486</v>
+        <v>1405.865651808851</v>
       </c>
       <c r="D11" t="n">
-        <v>1153.884204769486</v>
+        <v>1020.424523025519</v>
       </c>
       <c r="E11" t="n">
-        <v>751.3006798860301</v>
+        <v>1020.424523025519</v>
       </c>
       <c r="F11" t="n">
-        <v>334.4062414160079</v>
+        <v>603.530084555497</v>
       </c>
       <c r="G11" t="n">
-        <v>334.4062414160079</v>
+        <v>479.3638543279552</v>
       </c>
       <c r="H11" t="n">
         <v>161.474980203576</v>
@@ -5044,19 +5044,19 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K11" t="n">
-        <v>480.8429123533649</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="L11" t="n">
-        <v>1055.728800784874</v>
+        <v>199.6499582149047</v>
       </c>
       <c r="M11" t="n">
-        <v>1630.614689216384</v>
+        <v>774.5358466464144</v>
       </c>
       <c r="N11" t="n">
-        <v>2205.500577647894</v>
+        <v>1349.421735077924</v>
       </c>
       <c r="O11" t="n">
-        <v>2322.771266389938</v>
+        <v>1889.339808621073</v>
       </c>
       <c r="P11" t="n">
         <v>2322.771266389938</v>
@@ -5074,19 +5074,19 @@
         <v>2170.040188337633</v>
       </c>
       <c r="U11" t="n">
-        <v>1914.335844868141</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="V11" t="n">
-        <v>1914.335844868141</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="W11" t="n">
-        <v>1543.336809836429</v>
+        <v>1799.041153305921</v>
       </c>
       <c r="X11" t="n">
-        <v>1153.884204769486</v>
+        <v>1799.041153305921</v>
       </c>
       <c r="Y11" t="n">
-        <v>1153.884204769486</v>
+        <v>1799.041153305921</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>831.2305470109559</v>
       </c>
       <c r="C12" t="n">
-        <v>680.576316571048</v>
+        <v>680.5763165710481</v>
       </c>
       <c r="D12" t="n">
         <v>550.4873491925284</v>
@@ -5108,7 +5108,7 @@
         <v>414.0408583034161</v>
       </c>
       <c r="F12" t="n">
-        <v>289.6090521865478</v>
+        <v>289.6090521865479</v>
       </c>
       <c r="G12" t="n">
         <v>169.872844804343</v>
@@ -5123,25 +5123,25 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K12" t="n">
-        <v>46.45542532779876</v>
+        <v>417.4106833070677</v>
       </c>
       <c r="L12" t="n">
-        <v>131.9265404257237</v>
+        <v>969.8431521386235</v>
       </c>
       <c r="M12" t="n">
-        <v>706.8124288572334</v>
+        <v>1544.729040570133</v>
       </c>
       <c r="N12" t="n">
-        <v>1281.698317288743</v>
+        <v>1581.732553032363</v>
       </c>
       <c r="O12" t="n">
-        <v>1856.584205720253</v>
+        <v>1581.732553032363</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.771266389938</v>
+        <v>2047.919613702049</v>
       </c>
       <c r="Q12" t="n">
-        <v>2322.771266389938</v>
+        <v>2322.771266389937</v>
       </c>
       <c r="R12" t="n">
         <v>2318.946464025697</v>
@@ -5153,10 +5153,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U12" t="n">
-        <v>1804.305423522045</v>
+        <v>1804.305423522044</v>
       </c>
       <c r="V12" t="n">
-        <v>1581.765421893112</v>
+        <v>1581.765421893111</v>
       </c>
       <c r="W12" t="n">
         <v>1351.648176026398</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.6473505660815</v>
+        <v>480.0905162082885</v>
       </c>
       <c r="C13" t="n">
-        <v>357.6473505660815</v>
+        <v>480.0905162082885</v>
       </c>
       <c r="D13" t="n">
-        <v>202.0142374685963</v>
+        <v>324.4574031108032</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45542532779876</v>
+        <v>324.4574031108032</v>
       </c>
       <c r="F13" t="n">
-        <v>46.45542532779876</v>
+        <v>324.4574031108032</v>
       </c>
       <c r="G13" t="n">
-        <v>46.45542532779876</v>
+        <v>324.4574031108032</v>
       </c>
       <c r="H13" t="n">
-        <v>46.45542532779876</v>
+        <v>171.3909931476165</v>
       </c>
       <c r="I13" t="n">
         <v>46.45542532779876</v>
@@ -5223,28 +5223,28 @@
         <v>1192.711748825081</v>
       </c>
       <c r="R13" t="n">
-        <v>1192.711748825081</v>
+        <v>1081.009583341634</v>
       </c>
       <c r="S13" t="n">
-        <v>1111.609764672799</v>
+        <v>882.9215920000397</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.609764672799</v>
+        <v>746.0698613874642</v>
       </c>
       <c r="U13" t="n">
-        <v>826.1857713262052</v>
+        <v>746.0698613874642</v>
       </c>
       <c r="V13" t="n">
-        <v>826.1857713262052</v>
+        <v>480.0905162082885</v>
       </c>
       <c r="W13" t="n">
-        <v>542.8553692573828</v>
+        <v>480.0905162082885</v>
       </c>
       <c r="X13" t="n">
-        <v>542.8553692573828</v>
+        <v>480.0905162082885</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.8553692573828</v>
+        <v>480.0905162082885</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1175.738326492261</v>
+        <v>1342.675135367433</v>
       </c>
       <c r="C14" t="n">
-        <v>1175.738326492261</v>
+        <v>949.4996338703637</v>
       </c>
       <c r="D14" t="n">
-        <v>1175.738326492261</v>
+        <v>564.0585050870314</v>
       </c>
       <c r="E14" t="n">
-        <v>773.1548016088052</v>
+        <v>161.474980203576</v>
       </c>
       <c r="F14" t="n">
-        <v>773.1548016088052</v>
+        <v>161.474980203576</v>
       </c>
       <c r="G14" t="n">
-        <v>479.3638543279552</v>
+        <v>161.474980203576</v>
       </c>
       <c r="H14" t="n">
         <v>161.474980203576</v>
@@ -5278,25 +5278,25 @@
         <v>46.45542532779876</v>
       </c>
       <c r="J14" t="n">
-        <v>46.45542532779876</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="K14" t="n">
-        <v>480.8429123533649</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="L14" t="n">
-        <v>1055.728800784874</v>
+        <v>816.3034102989285</v>
       </c>
       <c r="M14" t="n">
-        <v>1630.614689216384</v>
+        <v>816.3034102989285</v>
       </c>
       <c r="N14" t="n">
-        <v>2205.500577647894</v>
+        <v>1100.561506815387</v>
       </c>
       <c r="O14" t="n">
-        <v>2322.771266389938</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="P14" t="n">
-        <v>2322.771266389938</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q14" t="n">
         <v>2322.771266389938</v>
@@ -5311,19 +5311,19 @@
         <v>2170.040188337633</v>
       </c>
       <c r="U14" t="n">
-        <v>1914.335844868141</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="V14" t="n">
-        <v>1572.22903557166</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="W14" t="n">
-        <v>1572.22903557166</v>
+        <v>1799.041153305921</v>
       </c>
       <c r="X14" t="n">
-        <v>1572.22903557166</v>
+        <v>1409.588548238978</v>
       </c>
       <c r="Y14" t="n">
-        <v>1175.738326492261</v>
+        <v>1409.588548238978</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>831.2305470109559</v>
       </c>
       <c r="C15" t="n">
-        <v>680.5763165710481</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D15" t="n">
         <v>550.4873491925284</v>
@@ -5345,7 +5345,7 @@
         <v>414.0408583034161</v>
       </c>
       <c r="F15" t="n">
-        <v>289.6090521865479</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G15" t="n">
         <v>169.872844804343</v>
@@ -5357,28 +5357,28 @@
         <v>46.45542532779876</v>
       </c>
       <c r="J15" t="n">
-        <v>46.45542532779876</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="K15" t="n">
-        <v>417.4106833070677</v>
+        <v>560.4913408073724</v>
       </c>
       <c r="L15" t="n">
-        <v>969.8431521386235</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="M15" t="n">
-        <v>1544.729040570133</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="N15" t="n">
-        <v>1747.885377958428</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.771266389937</v>
+        <v>1581.732553032364</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.771266389937</v>
+        <v>2047.919613702049</v>
       </c>
       <c r="Q15" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R15" t="n">
         <v>2318.946464025697</v>
@@ -5390,10 +5390,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U15" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V15" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W15" t="n">
         <v>1351.648176026398</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>308.8765506824702</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="C16" t="n">
-        <v>213.2856008867507</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="D16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="E16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="F16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="G16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J16" t="n">
         <v>46.45542532779876</v>
@@ -5463,25 +5463,25 @@
         <v>1192.711748825081</v>
       </c>
       <c r="S16" t="n">
-        <v>994.6237574834861</v>
+        <v>1115.74900885293</v>
       </c>
       <c r="T16" t="n">
-        <v>760.0639145529473</v>
+        <v>881.1891659223909</v>
       </c>
       <c r="U16" t="n">
-        <v>760.0639145529473</v>
+        <v>595.7651725757969</v>
       </c>
       <c r="V16" t="n">
-        <v>494.0845693737715</v>
+        <v>329.7858273966211</v>
       </c>
       <c r="W16" t="n">
-        <v>494.0845693737715</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="X16" t="n">
-        <v>494.0845693737715</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.0845693737715</v>
+        <v>46.45542532779876</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2507.5005449825</v>
+        <v>1847.727207872287</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.32504348543</v>
+        <v>1454.551706375217</v>
       </c>
       <c r="D17" t="n">
-        <v>1728.883914702098</v>
+        <v>1316.794643113228</v>
       </c>
       <c r="E17" t="n">
-        <v>1326.300389818643</v>
+        <v>914.2111182297722</v>
       </c>
       <c r="F17" t="n">
-        <v>909.4059513486204</v>
+        <v>497.3166797597499</v>
       </c>
       <c r="G17" t="n">
         <v>497.3166797597499</v>
@@ -5515,10 +5515,10 @@
         <v>87.27581859275155</v>
       </c>
       <c r="J17" t="n">
-        <v>321.223096560228</v>
+        <v>321.2230965602275</v>
       </c>
       <c r="K17" t="n">
-        <v>814.0392646804037</v>
+        <v>814.0392646804034</v>
       </c>
       <c r="L17" t="n">
         <v>1473.392234695138</v>
@@ -5545,22 +5545,22 @@
         <v>4221.739389476869</v>
       </c>
       <c r="T17" t="n">
-        <v>4221.739389476869</v>
+        <v>4002.937962909772</v>
       </c>
       <c r="U17" t="n">
-        <v>4221.739389476869</v>
+        <v>3747.27111205822</v>
       </c>
       <c r="V17" t="n">
-        <v>3879.632580180388</v>
+        <v>3405.164302761739</v>
       </c>
       <c r="W17" t="n">
-        <v>3508.633545148675</v>
+        <v>3034.165267730026</v>
       </c>
       <c r="X17" t="n">
-        <v>3119.180940081732</v>
+        <v>2644.712662663083</v>
       </c>
       <c r="Y17" t="n">
-        <v>2907.995290693897</v>
+        <v>2248.221953583684</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2881.759869504489</v>
+        <v>860.7450148080416</v>
       </c>
       <c r="C18" t="n">
-        <v>2731.105639064582</v>
+        <v>710.0907843681338</v>
       </c>
       <c r="D18" t="n">
-        <v>2601.016671686062</v>
+        <v>580.0018169896141</v>
       </c>
       <c r="E18" t="n">
-        <v>2464.57018079695</v>
+        <v>443.5553261005019</v>
       </c>
       <c r="F18" t="n">
-        <v>2340.138374680082</v>
+        <v>319.1235199836337</v>
       </c>
       <c r="G18" t="n">
-        <v>2220.652921286853</v>
+        <v>199.6380665904048</v>
       </c>
       <c r="H18" t="n">
-        <v>2137.902657106158</v>
+        <v>116.88780240971</v>
       </c>
       <c r="I18" t="n">
-        <v>2108.290673289199</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="J18" t="n">
-        <v>2108.290673289199</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="K18" t="n">
-        <v>2110.491313177336</v>
+        <v>460.344501144521</v>
       </c>
       <c r="L18" t="n">
-        <v>2716.285826120277</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M18" t="n">
-        <v>2767.457384510087</v>
+        <v>1117.310572477273</v>
       </c>
       <c r="N18" t="n">
-        <v>3200.216963643622</v>
+        <v>1179.202108947172</v>
       </c>
       <c r="O18" t="n">
-        <v>3850.673727032299</v>
+        <v>1829.65887233585</v>
       </c>
       <c r="P18" t="n">
-        <v>4363.790929637577</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="Q18" t="n">
-        <v>4363.790929637577</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="R18" t="n">
-        <v>4363.790929637577</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="S18" t="n">
-        <v>4239.528821859069</v>
+        <v>2218.51396716262</v>
       </c>
       <c r="T18" t="n">
-        <v>4064.860102196482</v>
+        <v>2043.845247500034</v>
       </c>
       <c r="U18" t="n">
-        <v>3854.834746015579</v>
+        <v>1833.81989131913</v>
       </c>
       <c r="V18" t="n">
-        <v>3632.294744386646</v>
+        <v>1611.279889690197</v>
       </c>
       <c r="W18" t="n">
-        <v>3402.177498519932</v>
+        <v>1381.162643823484</v>
       </c>
       <c r="X18" t="n">
-        <v>3212.870420869944</v>
+        <v>1191.855566173496</v>
       </c>
       <c r="Y18" t="n">
-        <v>3033.556203945451</v>
+        <v>1012.541349249003</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.6343316490494</v>
+        <v>568.0073924459077</v>
       </c>
       <c r="C19" t="n">
-        <v>452.6343316490494</v>
+        <v>568.0073924459077</v>
       </c>
       <c r="D19" t="n">
-        <v>452.6343316490494</v>
+        <v>412.3742793484225</v>
       </c>
       <c r="E19" t="n">
-        <v>357.0867157562825</v>
+        <v>412.3742793484225</v>
       </c>
       <c r="F19" t="n">
-        <v>357.0867157562825</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="G19" t="n">
-        <v>357.0867157562825</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="H19" t="n">
-        <v>205.8893857851268</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I19" t="n">
         <v>87.27581859275155</v>
@@ -5682,10 +5682,10 @@
         <v>461.8282234572869</v>
       </c>
       <c r="M19" t="n">
-        <v>722.0994082132621</v>
+        <v>722.0994082132622</v>
       </c>
       <c r="N19" t="n">
-        <v>977.5095789741201</v>
+        <v>977.5095789741202</v>
       </c>
       <c r="O19" t="n">
         <v>1206.921700918257</v>
@@ -5700,25 +5700,25 @@
         <v>1426.818731422757</v>
       </c>
       <c r="S19" t="n">
-        <v>1426.818731422757</v>
+        <v>1232.394366200512</v>
       </c>
       <c r="T19" t="n">
-        <v>1193.157117118245</v>
+        <v>1232.394366200512</v>
       </c>
       <c r="U19" t="n">
-        <v>1193.157117118245</v>
+        <v>946.9818396023351</v>
       </c>
       <c r="V19" t="n">
-        <v>1193.157117118245</v>
+        <v>946.9818396023351</v>
       </c>
       <c r="W19" t="n">
-        <v>909.826715049423</v>
+        <v>946.9818396023351</v>
       </c>
       <c r="X19" t="n">
-        <v>675.7463928324061</v>
+        <v>791.1194536292644</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.6343316490494</v>
+        <v>568.0073924459077</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2507.5005449825</v>
+        <v>2208.580174600093</v>
       </c>
       <c r="C20" t="n">
-        <v>2114.32504348543</v>
+        <v>1815.404673103023</v>
       </c>
       <c r="D20" t="n">
-        <v>1728.883914702098</v>
+        <v>1429.963544319691</v>
       </c>
       <c r="E20" t="n">
-        <v>1326.300389818643</v>
+        <v>1027.380019436236</v>
       </c>
       <c r="F20" t="n">
-        <v>909.4059513486204</v>
+        <v>610.4855809662134</v>
       </c>
       <c r="G20" t="n">
-        <v>497.3166797597499</v>
+        <v>198.396309377343</v>
       </c>
       <c r="H20" t="n">
         <v>184.2274465539583</v>
@@ -5779,25 +5779,25 @@
         <v>4363.790929637577</v>
       </c>
       <c r="S20" t="n">
-        <v>4221.739389476869</v>
+        <v>4363.790929637577</v>
       </c>
       <c r="T20" t="n">
-        <v>4221.739389476869</v>
+        <v>4363.790929637577</v>
       </c>
       <c r="U20" t="n">
-        <v>4221.739389476869</v>
+        <v>4108.124078786026</v>
       </c>
       <c r="V20" t="n">
-        <v>3879.632580180388</v>
+        <v>3766.017269489545</v>
       </c>
       <c r="W20" t="n">
-        <v>3693.938604840239</v>
+        <v>3395.018234457832</v>
       </c>
       <c r="X20" t="n">
-        <v>3304.485999773296</v>
+        <v>3005.565629390889</v>
       </c>
       <c r="Y20" t="n">
-        <v>2907.995290693897</v>
+        <v>2609.07492031149</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>87.27581859275155</v>
       </c>
       <c r="K21" t="n">
-        <v>89.47645848088803</v>
+        <v>460.344501144521</v>
       </c>
       <c r="L21" t="n">
-        <v>695.27097142383</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.67743026914</v>
+        <v>1117.310572477273</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.036008834692</v>
+        <v>1179.202108947172</v>
       </c>
       <c r="O21" t="n">
-        <v>2321.492772223369</v>
+        <v>1829.65887233585</v>
       </c>
       <c r="P21" t="n">
         <v>2342.776074941129</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.0839055640472</v>
+        <v>256.1851007340084</v>
       </c>
       <c r="C22" t="n">
-        <v>561.8787876300364</v>
+        <v>256.1851007340084</v>
       </c>
       <c r="D22" t="n">
-        <v>406.2456745325512</v>
+        <v>256.1851007340084</v>
       </c>
       <c r="E22" t="n">
-        <v>406.2456745325512</v>
+        <v>256.1851007340084</v>
       </c>
       <c r="F22" t="n">
-        <v>406.2456745325512</v>
+        <v>205.8893857851268</v>
       </c>
       <c r="G22" t="n">
-        <v>238.4731485639073</v>
+        <v>205.8893857851268</v>
       </c>
       <c r="H22" t="n">
-        <v>87.27581859275155</v>
+        <v>205.8893857851268</v>
       </c>
       <c r="I22" t="n">
         <v>87.27581859275155</v>
@@ -5919,10 +5919,10 @@
         <v>461.8282234572869</v>
       </c>
       <c r="M22" t="n">
-        <v>722.0994082132621</v>
+        <v>722.0994082132622</v>
       </c>
       <c r="N22" t="n">
-        <v>977.5095789741201</v>
+        <v>977.5095789741202</v>
       </c>
       <c r="O22" t="n">
         <v>1206.921700918257</v>
@@ -5940,22 +5940,22 @@
         <v>1324.568988884695</v>
       </c>
       <c r="T22" t="n">
-        <v>1183.271269434524</v>
+        <v>1090.907374580183</v>
       </c>
       <c r="U22" t="n">
-        <v>1183.271269434524</v>
+        <v>805.4948479820065</v>
       </c>
       <c r="V22" t="n">
-        <v>917.2919242553485</v>
+        <v>539.5155028028307</v>
       </c>
       <c r="W22" t="n">
-        <v>917.2919242553485</v>
+        <v>256.1851007340084</v>
       </c>
       <c r="X22" t="n">
-        <v>917.2919242553485</v>
+        <v>256.1851007340084</v>
       </c>
       <c r="Y22" t="n">
-        <v>917.2919242553485</v>
+        <v>256.1851007340084</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2208.580174600093</v>
+        <v>1847.727207872287</v>
       </c>
       <c r="C23" t="n">
-        <v>1815.404673103023</v>
+        <v>1454.551706375217</v>
       </c>
       <c r="D23" t="n">
-        <v>1429.963544319691</v>
+        <v>1069.110577591885</v>
       </c>
       <c r="E23" t="n">
-        <v>1027.380019436236</v>
+        <v>666.5270527084297</v>
       </c>
       <c r="F23" t="n">
-        <v>610.4855809662134</v>
+        <v>249.6326142384074</v>
       </c>
       <c r="G23" t="n">
-        <v>198.396309377343</v>
+        <v>184.2274465539583</v>
       </c>
       <c r="H23" t="n">
         <v>184.2274465539583</v>
@@ -5992,7 +5992,7 @@
         <v>321.2230965602275</v>
       </c>
       <c r="K23" t="n">
-        <v>814.0392646804033</v>
+        <v>814.039264680403</v>
       </c>
       <c r="L23" t="n">
         <v>1473.392234695138</v>
@@ -6016,25 +6016,25 @@
         <v>4363.790929637577</v>
       </c>
       <c r="S23" t="n">
-        <v>4363.790929637577</v>
+        <v>4221.739389476869</v>
       </c>
       <c r="T23" t="n">
-        <v>4363.790929637577</v>
+        <v>4002.937962909772</v>
       </c>
       <c r="U23" t="n">
-        <v>4108.124078786026</v>
+        <v>3747.27111205822</v>
       </c>
       <c r="V23" t="n">
-        <v>3766.017269489545</v>
+        <v>3405.164302761739</v>
       </c>
       <c r="W23" t="n">
-        <v>3395.018234457832</v>
+        <v>3034.165267730026</v>
       </c>
       <c r="X23" t="n">
-        <v>3005.565629390889</v>
+        <v>2644.712662663083</v>
       </c>
       <c r="Y23" t="n">
-        <v>2609.07492031149</v>
+        <v>2248.221953583684</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>87.27581859275155</v>
       </c>
       <c r="J24" t="n">
-        <v>87.27581859275155</v>
+        <v>253.5757830762573</v>
       </c>
       <c r="K24" t="n">
-        <v>89.47645848088804</v>
+        <v>664.2165350066202</v>
       </c>
       <c r="L24" t="n">
-        <v>695.27097142383</v>
+        <v>1270.011047949562</v>
       </c>
       <c r="M24" t="n">
-        <v>1117.310572477273</v>
+        <v>1321.182606339372</v>
       </c>
       <c r="N24" t="n">
-        <v>1179.202108947172</v>
+        <v>1383.074142809272</v>
       </c>
       <c r="O24" t="n">
-        <v>1829.65887233585</v>
+        <v>2003.759325992331</v>
       </c>
       <c r="P24" t="n">
-        <v>2342.776074941129</v>
+        <v>2025.042628710091</v>
       </c>
       <c r="Q24" t="n">
-        <v>2342.776074941129</v>
+        <v>2331.265838449142</v>
       </c>
       <c r="R24" t="n">
         <v>2342.776074941129</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>743.3029598379793</v>
+        <v>592.0964575765825</v>
       </c>
       <c r="C25" t="n">
-        <v>717.4375997708339</v>
+        <v>592.0964575765825</v>
       </c>
       <c r="D25" t="n">
-        <v>561.8044866733487</v>
+        <v>592.0964575765825</v>
       </c>
       <c r="E25" t="n">
-        <v>406.2456745325512</v>
+        <v>563.5716093195782</v>
       </c>
       <c r="F25" t="n">
         <v>406.2456745325512</v>
@@ -6174,25 +6174,25 @@
         <v>1426.818731422757</v>
       </c>
       <c r="S25" t="n">
-        <v>1232.394366200512</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="T25" t="n">
-        <v>1232.394366200512</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="U25" t="n">
-        <v>1232.394366200512</v>
+        <v>1141.406204824581</v>
       </c>
       <c r="V25" t="n">
-        <v>966.415021021336</v>
+        <v>875.4268596454048</v>
       </c>
       <c r="W25" t="n">
-        <v>966.415021021336</v>
+        <v>592.0964575765825</v>
       </c>
       <c r="X25" t="n">
-        <v>966.415021021336</v>
+        <v>592.0964575765825</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.3029598379793</v>
+        <v>592.0964575765825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2507.5005449825</v>
+        <v>2245.445598884546</v>
       </c>
       <c r="C26" t="n">
-        <v>2114.32504348543</v>
+        <v>1852.270097387477</v>
       </c>
       <c r="D26" t="n">
-        <v>1728.883914702098</v>
+        <v>1466.828968604144</v>
       </c>
       <c r="E26" t="n">
-        <v>1326.300389818643</v>
+        <v>1064.245443720689</v>
       </c>
       <c r="F26" t="n">
-        <v>909.4059513486204</v>
+        <v>647.3510052506666</v>
       </c>
       <c r="G26" t="n">
-        <v>497.3166797597499</v>
+        <v>235.2617336617961</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2274465539583</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I26" t="n">
         <v>87.27581859275155</v>
@@ -6256,22 +6256,22 @@
         <v>4363.790929637577</v>
       </c>
       <c r="T26" t="n">
-        <v>4363.790929637577</v>
+        <v>4144.989503070479</v>
       </c>
       <c r="U26" t="n">
-        <v>4363.790929637577</v>
+        <v>4144.989503070479</v>
       </c>
       <c r="V26" t="n">
-        <v>4021.684120341096</v>
+        <v>3802.882693773998</v>
       </c>
       <c r="W26" t="n">
-        <v>3650.685085309383</v>
+        <v>3431.883658742285</v>
       </c>
       <c r="X26" t="n">
-        <v>3304.485999773296</v>
+        <v>3042.431053675342</v>
       </c>
       <c r="Y26" t="n">
-        <v>2907.995290693897</v>
+        <v>2645.940344595943</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>87.27581859275155</v>
       </c>
       <c r="J27" t="n">
-        <v>98.72746364320085</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="K27" t="n">
-        <v>100.9281035313373</v>
+        <v>460.344501144521</v>
       </c>
       <c r="L27" t="n">
-        <v>706.7226164742793</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M27" t="n">
-        <v>1477.129075319589</v>
+        <v>1117.310572477273</v>
       </c>
       <c r="N27" t="n">
-        <v>2279.316974725672</v>
+        <v>1179.202108947172</v>
       </c>
       <c r="O27" t="n">
-        <v>2321.492772223369</v>
+        <v>1829.65887233585</v>
       </c>
       <c r="P27" t="n">
         <v>2342.776074941129</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.5630134257426</v>
+        <v>358.4348432720709</v>
       </c>
       <c r="C28" t="n">
-        <v>551.3578954917318</v>
+        <v>358.4348432720709</v>
       </c>
       <c r="D28" t="n">
-        <v>551.3578954917318</v>
+        <v>358.4348432720709</v>
       </c>
       <c r="E28" t="n">
-        <v>395.7990833509343</v>
+        <v>202.8760311312734</v>
       </c>
       <c r="F28" t="n">
-        <v>238.4731485639073</v>
+        <v>202.8760311312734</v>
       </c>
       <c r="G28" t="n">
-        <v>238.4731485639073</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="H28" t="n">
         <v>87.27581859275155</v>
@@ -6408,28 +6408,28 @@
         <v>1426.818731422757</v>
       </c>
       <c r="R28" t="n">
-        <v>1324.568988884695</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="S28" t="n">
-        <v>1130.144623662449</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="T28" t="n">
-        <v>896.4830093579376</v>
+        <v>1193.157117118246</v>
       </c>
       <c r="U28" t="n">
-        <v>896.4830093579376</v>
+        <v>907.744590520069</v>
       </c>
       <c r="V28" t="n">
-        <v>721.5630134257426</v>
+        <v>641.7652453408932</v>
       </c>
       <c r="W28" t="n">
-        <v>721.5630134257426</v>
+        <v>358.4348432720709</v>
       </c>
       <c r="X28" t="n">
-        <v>721.5630134257426</v>
+        <v>358.4348432720709</v>
       </c>
       <c r="Y28" t="n">
-        <v>721.5630134257426</v>
+        <v>358.4348432720709</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.231353099938</v>
+        <v>2066.528634439385</v>
       </c>
       <c r="C29" t="n">
-        <v>2114.32504348543</v>
+        <v>1673.353132942315</v>
       </c>
       <c r="D29" t="n">
-        <v>1728.883914702098</v>
+        <v>1631.932286740891</v>
       </c>
       <c r="E29" t="n">
-        <v>1326.300389818643</v>
+        <v>1229.348761857436</v>
       </c>
       <c r="F29" t="n">
-        <v>909.4059513486204</v>
+        <v>812.4543233874138</v>
       </c>
       <c r="G29" t="n">
-        <v>497.3166797597499</v>
+        <v>400.3650517985432</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2274465539583</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I29" t="n">
         <v>87.27581859275155</v>
@@ -6466,16 +6466,16 @@
         <v>321.2230965602275</v>
       </c>
       <c r="K29" t="n">
-        <v>814.039264680403</v>
+        <v>814.0392646804033</v>
       </c>
       <c r="L29" t="n">
-        <v>1473.392234695137</v>
+        <v>1473.392234695138</v>
       </c>
       <c r="M29" t="n">
-        <v>2204.136480416435</v>
+        <v>2204.136480416436</v>
       </c>
       <c r="N29" t="n">
-        <v>2919.680450206885</v>
+        <v>2919.680450206886</v>
       </c>
       <c r="O29" t="n">
         <v>3536.990703161251</v>
@@ -6490,25 +6490,25 @@
         <v>4363.790929637577</v>
       </c>
       <c r="S29" t="n">
-        <v>4363.790929637577</v>
+        <v>4221.739389476869</v>
       </c>
       <c r="T29" t="n">
-        <v>4144.989503070479</v>
+        <v>4221.739389476869</v>
       </c>
       <c r="U29" t="n">
-        <v>3889.322652218928</v>
+        <v>3966.072538625318</v>
       </c>
       <c r="V29" t="n">
-        <v>3547.215842922446</v>
+        <v>3623.965729328836</v>
       </c>
       <c r="W29" t="n">
-        <v>3176.216807890734</v>
+        <v>3252.966694297124</v>
       </c>
       <c r="X29" t="n">
-        <v>3176.216807890734</v>
+        <v>2863.514089230181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2779.726098811335</v>
+        <v>2467.023380150782</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>87.27581859275155</v>
       </c>
       <c r="K30" t="n">
-        <v>89.47645848088804</v>
+        <v>460.344501144521</v>
       </c>
       <c r="L30" t="n">
-        <v>695.27097142383</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.67743026914</v>
+        <v>1117.310572477273</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.525772342705</v>
+        <v>1179.202108947172</v>
       </c>
       <c r="O30" t="n">
-        <v>2309.982535731383</v>
+        <v>1829.65887233585</v>
       </c>
       <c r="P30" t="n">
-        <v>2331.265838449142</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="Q30" t="n">
-        <v>2331.265838449142</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="R30" t="n">
         <v>2342.776074941129</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>993.3771017502361</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="C31" t="n">
-        <v>993.3771017502361</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="D31" t="n">
-        <v>837.7439886527509</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="E31" t="n">
-        <v>682.1851765119534</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="F31" t="n">
-        <v>524.8592417249264</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="G31" t="n">
-        <v>357.0867157562825</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="H31" t="n">
-        <v>205.8893857851268</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I31" t="n">
         <v>87.27581859275155</v>
@@ -6645,28 +6645,28 @@
         <v>1426.818731422757</v>
       </c>
       <c r="R31" t="n">
-        <v>1410.913528155838</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="S31" t="n">
-        <v>1216.489162933593</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="T31" t="n">
-        <v>1216.489162933593</v>
+        <v>1193.157117118246</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.489162933593</v>
+        <v>907.744590520069</v>
       </c>
       <c r="V31" t="n">
-        <v>1216.489162933593</v>
+        <v>772.4590688472347</v>
       </c>
       <c r="W31" t="n">
-        <v>1216.489162933593</v>
+        <v>489.1286667784124</v>
       </c>
       <c r="X31" t="n">
-        <v>1216.489162933593</v>
+        <v>255.0483445613954</v>
       </c>
       <c r="Y31" t="n">
-        <v>993.3771017502361</v>
+        <v>255.0483445613954</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1989.778748032995</v>
+        <v>2208.580174600093</v>
       </c>
       <c r="C32" t="n">
-        <v>1801.235810279639</v>
+        <v>1815.404673103023</v>
       </c>
       <c r="D32" t="n">
-        <v>1415.794681496306</v>
+        <v>1728.883914702098</v>
       </c>
       <c r="E32" t="n">
-        <v>1013.211156612851</v>
+        <v>1326.300389818643</v>
       </c>
       <c r="F32" t="n">
-        <v>596.3167181428287</v>
+        <v>909.4059513486204</v>
       </c>
       <c r="G32" t="n">
-        <v>184.2274465539583</v>
+        <v>497.3166797597499</v>
       </c>
       <c r="H32" t="n">
         <v>184.2274465539583</v>
@@ -6700,22 +6700,22 @@
         <v>87.27581859275155</v>
       </c>
       <c r="J32" t="n">
-        <v>321.2230965602276</v>
+        <v>321.2230965602275</v>
       </c>
       <c r="K32" t="n">
-        <v>814.0392646804034</v>
+        <v>814.039264680403</v>
       </c>
       <c r="L32" t="n">
-        <v>1473.392234695138</v>
+        <v>1473.392234695137</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.136480416436</v>
+        <v>2204.136480416435</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.680450206886</v>
+        <v>2919.680450206885</v>
       </c>
       <c r="O32" t="n">
-        <v>3536.990703161252</v>
+        <v>3536.990703161251</v>
       </c>
       <c r="P32" t="n">
         <v>4036.474595526236</v>
@@ -6730,22 +6730,22 @@
         <v>4363.790929637577</v>
       </c>
       <c r="T32" t="n">
-        <v>4144.989503070479</v>
+        <v>4363.790929637577</v>
       </c>
       <c r="U32" t="n">
-        <v>3889.322652218928</v>
+        <v>4108.124078786026</v>
       </c>
       <c r="V32" t="n">
-        <v>3547.215842922446</v>
+        <v>3766.017269489545</v>
       </c>
       <c r="W32" t="n">
-        <v>3176.216807890734</v>
+        <v>3395.018234457832</v>
       </c>
       <c r="X32" t="n">
-        <v>2786.764202823791</v>
+        <v>3005.565629390889</v>
       </c>
       <c r="Y32" t="n">
-        <v>2390.273493744392</v>
+        <v>2609.07492031149</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>87.27581859275155</v>
       </c>
       <c r="K33" t="n">
-        <v>89.47645848088804</v>
+        <v>460.344501144521</v>
       </c>
       <c r="L33" t="n">
-        <v>695.27097142383</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.67743026914</v>
+        <v>1117.310572477273</v>
       </c>
       <c r="N33" t="n">
-        <v>1527.568966739039</v>
+        <v>1179.202108947172</v>
       </c>
       <c r="O33" t="n">
-        <v>1818.148635843864</v>
+        <v>1829.65887233585</v>
       </c>
       <c r="P33" t="n">
-        <v>2331.265838449142</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="Q33" t="n">
-        <v>2331.265838449142</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="R33" t="n">
         <v>2342.776074941129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3930.349299965057</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="C34" t="n">
-        <v>3930.349299965057</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="D34" t="n">
-        <v>3774.716186867571</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="E34" t="n">
-        <v>3619.157374726774</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="F34" t="n">
-        <v>3461.831439939747</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="G34" t="n">
-        <v>3294.058913971103</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="H34" t="n">
-        <v>3142.861583999947</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I34" t="n">
-        <v>3024.248016807572</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="J34" t="n">
-        <v>3027.840822902968</v>
+        <v>90.86862468814829</v>
       </c>
       <c r="K34" t="n">
-        <v>3164.50735331398</v>
+        <v>227.5351550991601</v>
       </c>
       <c r="L34" t="n">
-        <v>3398.800421672107</v>
+        <v>461.8282234572869</v>
       </c>
       <c r="M34" t="n">
-        <v>3659.071606428082</v>
+        <v>722.0994082132622</v>
       </c>
       <c r="N34" t="n">
-        <v>3914.48177718894</v>
+        <v>977.5095789741202</v>
       </c>
       <c r="O34" t="n">
-        <v>4143.893899133077</v>
+        <v>1206.921700918257</v>
       </c>
       <c r="P34" t="n">
-        <v>4320.849731080347</v>
+        <v>1383.877532865527</v>
       </c>
       <c r="Q34" t="n">
-        <v>4363.790929637577</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="R34" t="n">
-        <v>4363.790929637577</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="S34" t="n">
-        <v>4169.366564415332</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="T34" t="n">
-        <v>4169.366564415332</v>
+        <v>1379.1904758393</v>
       </c>
       <c r="U34" t="n">
-        <v>4169.366564415332</v>
+        <v>1093.777949241123</v>
       </c>
       <c r="V34" t="n">
-        <v>4169.366564415332</v>
+        <v>827.7986040619476</v>
       </c>
       <c r="W34" t="n">
-        <v>4169.366564415332</v>
+        <v>544.4682019931251</v>
       </c>
       <c r="X34" t="n">
-        <v>4169.366564415332</v>
+        <v>310.3878797761082</v>
       </c>
       <c r="Y34" t="n">
-        <v>3946.254503231975</v>
+        <v>87.27581859275155</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2103.394058723838</v>
+        <v>1847.727207872287</v>
       </c>
       <c r="C35" t="n">
-        <v>1710.218557226769</v>
+        <v>1454.551706375217</v>
       </c>
       <c r="D35" t="n">
-        <v>1324.777428443437</v>
+        <v>1069.110577591885</v>
       </c>
       <c r="E35" t="n">
-        <v>1324.777428443437</v>
+        <v>1013.211156612851</v>
       </c>
       <c r="F35" t="n">
-        <v>907.8829899734145</v>
+        <v>596.3167181428287</v>
       </c>
       <c r="G35" t="n">
-        <v>497.3166797597499</v>
+        <v>184.2274465539582</v>
       </c>
       <c r="H35" t="n">
-        <v>184.2274465539583</v>
+        <v>184.2274465539582</v>
       </c>
       <c r="I35" t="n">
         <v>87.27581859275155</v>
       </c>
       <c r="J35" t="n">
-        <v>321.2230965602275</v>
+        <v>321.2230965602276</v>
       </c>
       <c r="K35" t="n">
-        <v>814.039264680403</v>
+        <v>814.0392646804034</v>
       </c>
       <c r="L35" t="n">
-        <v>1473.392234695137</v>
+        <v>1473.392234695138</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.136480416435</v>
+        <v>2204.136480416436</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.680450206885</v>
+        <v>2919.680450206886</v>
       </c>
       <c r="O35" t="n">
         <v>3536.990703161251</v>
@@ -6970,19 +6970,19 @@
         <v>4002.937962909772</v>
       </c>
       <c r="U35" t="n">
-        <v>4002.937962909772</v>
+        <v>3747.27111205822</v>
       </c>
       <c r="V35" t="n">
-        <v>3660.83115361329</v>
+        <v>3405.164302761739</v>
       </c>
       <c r="W35" t="n">
-        <v>3289.832118581578</v>
+        <v>3034.165267730026</v>
       </c>
       <c r="X35" t="n">
-        <v>2900.379513514634</v>
+        <v>2644.712662663083</v>
       </c>
       <c r="Y35" t="n">
-        <v>2503.888804435235</v>
+        <v>2248.221953583684</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>87.27581859275155</v>
       </c>
       <c r="K36" t="n">
-        <v>497.9165705231145</v>
+        <v>460.3445011445209</v>
       </c>
       <c r="L36" t="n">
-        <v>1103.711083466057</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M36" t="n">
-        <v>1154.882641855866</v>
+        <v>1117.310572477273</v>
       </c>
       <c r="N36" t="n">
-        <v>1216.774178325766</v>
+        <v>1179.202108947172</v>
       </c>
       <c r="O36" t="n">
-        <v>1867.230941714444</v>
+        <v>1829.65887233585</v>
       </c>
       <c r="P36" t="n">
-        <v>2036.552865202078</v>
+        <v>2342.776074941129</v>
       </c>
       <c r="Q36" t="n">
         <v>2342.776074941129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3656.102619675196</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="C37" t="n">
-        <v>3656.102619675196</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="D37" t="n">
-        <v>3656.102619675196</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="E37" t="n">
-        <v>3500.543807534399</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="F37" t="n">
-        <v>3343.217872747372</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="G37" t="n">
-        <v>3175.445346778728</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="H37" t="n">
-        <v>3024.248016807572</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I37" t="n">
-        <v>3024.248016807572</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="J37" t="n">
-        <v>3027.840822902968</v>
+        <v>90.86862468814832</v>
       </c>
       <c r="K37" t="n">
-        <v>3164.50735331398</v>
+        <v>227.5351550991602</v>
       </c>
       <c r="L37" t="n">
-        <v>3398.800421672107</v>
+        <v>461.828223457287</v>
       </c>
       <c r="M37" t="n">
-        <v>3659.071606428082</v>
+        <v>722.0994082132622</v>
       </c>
       <c r="N37" t="n">
-        <v>3914.48177718894</v>
+        <v>977.5095789741202</v>
       </c>
       <c r="O37" t="n">
-        <v>4143.893899133077</v>
+        <v>1206.921700918257</v>
       </c>
       <c r="P37" t="n">
-        <v>4320.849731080347</v>
+        <v>1383.877532865527</v>
       </c>
       <c r="Q37" t="n">
-        <v>4363.790929637577</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="R37" t="n">
-        <v>4261.541187099515</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="S37" t="n">
-        <v>4261.541187099515</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="T37" t="n">
-        <v>4261.541187099515</v>
+        <v>1193.157117118246</v>
       </c>
       <c r="U37" t="n">
-        <v>3976.128660501338</v>
+        <v>907.744590520069</v>
       </c>
       <c r="V37" t="n">
-        <v>3976.128660501338</v>
+        <v>641.7652453408932</v>
       </c>
       <c r="W37" t="n">
-        <v>3692.798258432516</v>
+        <v>358.4348432720709</v>
       </c>
       <c r="X37" t="n">
-        <v>3656.102619675196</v>
+        <v>124.3545210550539</v>
       </c>
       <c r="Y37" t="n">
-        <v>3656.102619675196</v>
+        <v>87.27581859275155</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1847.727207872287</v>
+        <v>2208.580174600093</v>
       </c>
       <c r="C38" t="n">
-        <v>1454.551706375217</v>
+        <v>1815.404673103023</v>
       </c>
       <c r="D38" t="n">
-        <v>1069.110577591885</v>
+        <v>1429.963544319691</v>
       </c>
       <c r="E38" t="n">
-        <v>666.5270527084297</v>
+        <v>1027.380019436236</v>
       </c>
       <c r="F38" t="n">
-        <v>249.6326142384074</v>
+        <v>610.4855809662134</v>
       </c>
       <c r="G38" t="n">
-        <v>184.2274465539582</v>
+        <v>198.396309377343</v>
       </c>
       <c r="H38" t="n">
-        <v>184.2274465539582</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I38" t="n">
         <v>87.27581859275155</v>
@@ -7186,40 +7186,40 @@
         <v>2204.136480416436</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.680450206886</v>
+        <v>2919.680450206887</v>
       </c>
       <c r="O38" t="n">
-        <v>3536.990703161251</v>
+        <v>3536.990703161252</v>
       </c>
       <c r="P38" t="n">
         <v>4036.474595526236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4334.937451349325</v>
+        <v>4334.937451349326</v>
       </c>
       <c r="R38" t="n">
         <v>4363.790929637577</v>
       </c>
       <c r="S38" t="n">
-        <v>4221.739389476869</v>
+        <v>4363.790929637577</v>
       </c>
       <c r="T38" t="n">
-        <v>4002.937962909772</v>
+        <v>4363.790929637577</v>
       </c>
       <c r="U38" t="n">
-        <v>3747.27111205822</v>
+        <v>4108.124078786026</v>
       </c>
       <c r="V38" t="n">
-        <v>3405.164302761739</v>
+        <v>3766.017269489545</v>
       </c>
       <c r="W38" t="n">
-        <v>3034.165267730026</v>
+        <v>3395.018234457832</v>
       </c>
       <c r="X38" t="n">
-        <v>2644.712662663083</v>
+        <v>3005.565629390889</v>
       </c>
       <c r="Y38" t="n">
-        <v>2248.221953583684</v>
+        <v>2609.07492031149</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>87.27581859275155</v>
       </c>
       <c r="K39" t="n">
-        <v>89.47645848088808</v>
+        <v>497.9165705231145</v>
       </c>
       <c r="L39" t="n">
-        <v>695.2709714238301</v>
+        <v>1066.139014087463</v>
       </c>
       <c r="M39" t="n">
         <v>1117.310572477273</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3295.407041486892</v>
+        <v>226.3109434646453</v>
       </c>
       <c r="C40" t="n">
-        <v>3295.407041486892</v>
+        <v>226.3109434646453</v>
       </c>
       <c r="D40" t="n">
-        <v>3295.407041486892</v>
+        <v>226.3109434646453</v>
       </c>
       <c r="E40" t="n">
-        <v>3295.407041486892</v>
+        <v>226.3109434646453</v>
       </c>
       <c r="F40" t="n">
-        <v>3138.081106699864</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="G40" t="n">
-        <v>3138.081106699864</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="H40" t="n">
-        <v>3024.248016807572</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="I40" t="n">
-        <v>3024.248016807572</v>
+        <v>87.27581859275155</v>
       </c>
       <c r="J40" t="n">
-        <v>3027.840822902968</v>
+        <v>90.86862468814832</v>
       </c>
       <c r="K40" t="n">
-        <v>3164.50735331398</v>
+        <v>227.5351550991602</v>
       </c>
       <c r="L40" t="n">
-        <v>3398.800421672107</v>
+        <v>461.828223457287</v>
       </c>
       <c r="M40" t="n">
-        <v>3659.071606428082</v>
+        <v>722.0994082132622</v>
       </c>
       <c r="N40" t="n">
-        <v>3914.48177718894</v>
+        <v>977.5095789741202</v>
       </c>
       <c r="O40" t="n">
-        <v>4143.893899133077</v>
+        <v>1206.921700918257</v>
       </c>
       <c r="P40" t="n">
-        <v>4320.849731080347</v>
+        <v>1383.877532865527</v>
       </c>
       <c r="Q40" t="n">
-        <v>4363.790929637577</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="R40" t="n">
-        <v>4363.790929637577</v>
+        <v>1426.818731422757</v>
       </c>
       <c r="S40" t="n">
-        <v>4363.790929637577</v>
+        <v>1232.394366200512</v>
       </c>
       <c r="T40" t="n">
-        <v>4130.129315333066</v>
+        <v>998.7327518960001</v>
       </c>
       <c r="U40" t="n">
-        <v>3844.71678873489</v>
+        <v>998.7327518960001</v>
       </c>
       <c r="V40" t="n">
-        <v>3578.737443555714</v>
+        <v>732.7534067168243</v>
       </c>
       <c r="W40" t="n">
-        <v>3295.407041486892</v>
+        <v>449.4230046480019</v>
       </c>
       <c r="X40" t="n">
-        <v>3295.407041486892</v>
+        <v>449.4230046480019</v>
       </c>
       <c r="Y40" t="n">
-        <v>3295.407041486892</v>
+        <v>226.3109434646453</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1536.827952243596</v>
+        <v>1555.281522278827</v>
       </c>
       <c r="C41" t="n">
-        <v>1536.827952243596</v>
+        <v>1162.106020781757</v>
       </c>
       <c r="D41" t="n">
-        <v>1536.827952243596</v>
+        <v>1162.106020781757</v>
       </c>
       <c r="E41" t="n">
-        <v>1134.24442736014</v>
+        <v>759.5224958983015</v>
       </c>
       <c r="F41" t="n">
-        <v>717.349988890118</v>
+        <v>342.6280574282792</v>
       </c>
       <c r="G41" t="n">
-        <v>305.2607173012475</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H41" t="n">
         <v>46.45542532779876</v>
@@ -7414,19 +7414,19 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K41" t="n">
-        <v>46.45542532779876</v>
+        <v>539.2715934479746</v>
       </c>
       <c r="L41" t="n">
-        <v>621.3413137593084</v>
+        <v>1114.157481879484</v>
       </c>
       <c r="M41" t="n">
-        <v>1170.501522061972</v>
+        <v>1150.673026474452</v>
       </c>
       <c r="N41" t="n">
-        <v>1745.387410493481</v>
+        <v>1725.558914905962</v>
       </c>
       <c r="O41" t="n">
-        <v>2320.273298924991</v>
+        <v>2300.444803337471</v>
       </c>
       <c r="P41" t="n">
         <v>2322.771266389938</v>
@@ -7450,13 +7450,13 @@
         <v>2322.771266389938</v>
       </c>
       <c r="W41" t="n">
-        <v>2322.771266389938</v>
+        <v>1951.772231358225</v>
       </c>
       <c r="X41" t="n">
-        <v>1933.318661322995</v>
+        <v>1951.772231358225</v>
       </c>
       <c r="Y41" t="n">
-        <v>1536.827952243596</v>
+        <v>1555.281522278827</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K42" t="n">
-        <v>48.65606521593529</v>
+        <v>457.0961772581617</v>
       </c>
       <c r="L42" t="n">
-        <v>81.72474887221509</v>
+        <v>1031.982065689671</v>
       </c>
       <c r="M42" t="n">
-        <v>332.843492468827</v>
+        <v>1152.061054169488</v>
       </c>
       <c r="N42" t="n">
-        <v>907.7293809003367</v>
+        <v>1213.952590639388</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.615269331846</v>
+        <v>1788.838479070898</v>
       </c>
       <c r="P42" t="n">
-        <v>1995.732471937125</v>
+        <v>2301.955681676176</v>
       </c>
       <c r="Q42" t="n">
         <v>2301.955681676176</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.6249944687362</v>
+        <v>672.4998320328706</v>
       </c>
       <c r="C43" t="n">
-        <v>525.4198765347254</v>
+        <v>639.6719615574589</v>
       </c>
       <c r="D43" t="n">
-        <v>369.7867634372402</v>
+        <v>484.0388484599736</v>
       </c>
       <c r="E43" t="n">
-        <v>214.2279512964427</v>
+        <v>484.0388484599736</v>
       </c>
       <c r="F43" t="n">
-        <v>214.2279512964427</v>
+        <v>484.0388484599736</v>
       </c>
       <c r="G43" t="n">
-        <v>46.45542532779876</v>
+        <v>316.2663224913297</v>
       </c>
       <c r="H43" t="n">
-        <v>46.45542532779876</v>
+        <v>165.068992520174</v>
       </c>
       <c r="I43" t="n">
         <v>46.45542532779876</v>
@@ -7596,25 +7596,25 @@
         <v>1385.998338157804</v>
       </c>
       <c r="S43" t="n">
-        <v>1385.998338157804</v>
+        <v>1191.573972935559</v>
       </c>
       <c r="T43" t="n">
-        <v>1385.998338157804</v>
+        <v>957.9123586310473</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.998338157804</v>
+        <v>672.4998320328706</v>
       </c>
       <c r="V43" t="n">
-        <v>1385.998338157804</v>
+        <v>672.4998320328706</v>
       </c>
       <c r="W43" t="n">
-        <v>1103.945074343394</v>
+        <v>672.4998320328706</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.945074343394</v>
+        <v>672.4998320328706</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.8330131600375</v>
+        <v>672.4998320328706</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2073.504650220478</v>
+        <v>1012.735236406722</v>
       </c>
       <c r="C44" t="n">
-        <v>2073.504650220478</v>
+        <v>1012.735236406722</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.063521437145</v>
+        <v>1012.735236406722</v>
       </c>
       <c r="E44" t="n">
-        <v>1285.47999655369</v>
+        <v>610.1517115232664</v>
       </c>
       <c r="F44" t="n">
-        <v>868.5855580836676</v>
+        <v>610.1517115232664</v>
       </c>
       <c r="G44" t="n">
-        <v>456.4962864947971</v>
+        <v>198.0624399343959</v>
       </c>
       <c r="H44" t="n">
-        <v>143.4070532890054</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I44" t="n">
         <v>46.45542532779876</v>
@@ -7657,43 +7657,43 @@
         <v>1114.157481879484</v>
       </c>
       <c r="M44" t="n">
-        <v>1689.043370310994</v>
+        <v>1150.673026474452</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.217367624557</v>
+        <v>1248.401485593443</v>
       </c>
       <c r="O44" t="n">
-        <v>2291.419820636738</v>
+        <v>1823.287374024953</v>
       </c>
       <c r="P44" t="n">
-        <v>2293.917788101685</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q44" t="n">
-        <v>2293.917788101685</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R44" t="n">
         <v>2322.771266389938</v>
       </c>
       <c r="S44" t="n">
-        <v>2322.771266389938</v>
+        <v>2180.71972622923</v>
       </c>
       <c r="T44" t="n">
-        <v>2103.96983982284</v>
+        <v>2180.71972622923</v>
       </c>
       <c r="U44" t="n">
-        <v>2103.96983982284</v>
+        <v>2180.71972622923</v>
       </c>
       <c r="V44" t="n">
-        <v>2073.504650220478</v>
+        <v>2180.71972622923</v>
       </c>
       <c r="W44" t="n">
-        <v>2073.504650220478</v>
+        <v>1809.720691197518</v>
       </c>
       <c r="X44" t="n">
-        <v>2073.504650220478</v>
+        <v>1809.720691197518</v>
       </c>
       <c r="Y44" t="n">
-        <v>2073.504650220478</v>
+        <v>1413.229982118119</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>457.0961772581617</v>
       </c>
       <c r="L45" t="n">
-        <v>490.1648609144415</v>
+        <v>1031.982065689671</v>
       </c>
       <c r="M45" t="n">
-        <v>1065.050749345951</v>
+        <v>1152.061054169488</v>
       </c>
       <c r="N45" t="n">
-        <v>1126.942285815851</v>
+        <v>1213.952590639388</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.615269331846</v>
+        <v>1788.838479070898</v>
       </c>
       <c r="P45" t="n">
-        <v>1995.732471937125</v>
+        <v>2301.955681676176</v>
       </c>
       <c r="Q45" t="n">
         <v>2301.955681676176</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1304.630801465099</v>
+        <v>525.4198765347254</v>
       </c>
       <c r="C46" t="n">
-        <v>1134.425683531088</v>
+        <v>525.4198765347254</v>
       </c>
       <c r="D46" t="n">
-        <v>1134.425683531088</v>
+        <v>369.7867634372402</v>
       </c>
       <c r="E46" t="n">
-        <v>1134.425683531088</v>
+        <v>214.2279512964427</v>
       </c>
       <c r="F46" t="n">
-        <v>1134.425683531088</v>
+        <v>214.2279512964427</v>
       </c>
       <c r="G46" t="n">
-        <v>1134.425683531088</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H46" t="n">
-        <v>983.2283535599321</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I46" t="n">
-        <v>983.2283535599321</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J46" t="n">
-        <v>986.8211596553289</v>
+        <v>50.04823142319552</v>
       </c>
       <c r="K46" t="n">
-        <v>1123.487690066341</v>
+        <v>186.7147618342074</v>
       </c>
       <c r="L46" t="n">
-        <v>1357.780758424467</v>
+        <v>421.0078301923342</v>
       </c>
       <c r="M46" t="n">
-        <v>1618.051943180443</v>
+        <v>681.2790149483094</v>
       </c>
       <c r="N46" t="n">
-        <v>1873.462113941301</v>
+        <v>936.6891857091674</v>
       </c>
       <c r="O46" t="n">
-        <v>2102.874235885437</v>
+        <v>1166.101307653304</v>
       </c>
       <c r="P46" t="n">
-        <v>2279.830067832707</v>
+        <v>1343.057139600574</v>
       </c>
       <c r="Q46" t="n">
-        <v>2322.771266389938</v>
+        <v>1385.998338157804</v>
       </c>
       <c r="R46" t="n">
-        <v>2322.771266389938</v>
+        <v>1385.998338157804</v>
       </c>
       <c r="S46" t="n">
-        <v>2322.771266389938</v>
+        <v>1385.998338157804</v>
       </c>
       <c r="T46" t="n">
-        <v>2322.771266389938</v>
+        <v>1152.336723853293</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.020870930114</v>
+        <v>1152.336723853293</v>
       </c>
       <c r="V46" t="n">
-        <v>1822.041525750938</v>
+        <v>886.3573786741171</v>
       </c>
       <c r="W46" t="n">
-        <v>1538.711123682115</v>
+        <v>748.5319377180821</v>
       </c>
       <c r="X46" t="n">
-        <v>1304.630801465099</v>
+        <v>748.5319377180821</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.630801465099</v>
+        <v>525.4198765347254</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>217.6171440604653</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>196.0090001429458</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -8075,7 +8075,7 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>307.7529874266314</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>177.0153387754951</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>219.0574392996201</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
@@ -8306,7 +8306,7 @@
         <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
-        <v>306.0417354614834</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
@@ -8455,25 +8455,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>363.7280257865542</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>187.2051053267494</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>193.4954296289271</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,22 +8692,22 @@
         <v>66.85930902235421</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L11" t="n">
-        <v>639.4493370543006</v>
+        <v>213.4984728680342</v>
       </c>
       <c r="M11" t="n">
-        <v>625.2777017866046</v>
+        <v>625.2777017866044</v>
       </c>
       <c r="N11" t="n">
         <v>622.9698637135103</v>
       </c>
       <c r="O11" t="n">
-        <v>167.1317324657361</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>64.19643144562944</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>79.83741748749453</v>
@@ -8771,25 +8771,25 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K12" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>106.8328035889207</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>591.9043622168383</v>
       </c>
       <c r="N12" t="n">
-        <v>582.7408770590584</v>
+        <v>39.42534577695778</v>
       </c>
       <c r="O12" t="n">
-        <v>597.1551462221198</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L14" t="n">
         <v>639.4493370543006</v>
       </c>
       <c r="M14" t="n">
-        <v>625.2777017866046</v>
+        <v>44.58488518912007</v>
       </c>
       <c r="N14" t="n">
-        <v>622.9698637135103</v>
+        <v>329.406437536691</v>
       </c>
       <c r="O14" t="n">
-        <v>167.1317324657361</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>64.19643144562944</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83741748749453</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>591.9043622168383</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N15" t="n">
-        <v>207.2564820659119</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O15" t="n">
-        <v>597.1551462221198</v>
+        <v>490.0065148705298</v>
       </c>
       <c r="P15" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>28.72225302648652</v>
+        <v>28.72225302648649</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>374.6141845087202</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>374.6141845087225</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9263,10 +9263,10 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.40419539413553</v>
+        <v>18.40419539413548</v>
       </c>
       <c r="R18" t="n">
-        <v>59.38730339860323</v>
+        <v>59.38730339860322</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>28.72225302648651</v>
+        <v>28.72225302648649</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>374.6141845087202</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>144.9162041370226</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.4041953941355</v>
+        <v>18.40419539413548</v>
       </c>
       <c r="R21" t="n">
         <v>59.38730339860322</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>28.72225302648649</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6141845087201</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>584.3529148337003</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.40419539413548</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>59.38730339860322</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>40.28957125926357</v>
+        <v>28.72225302648649</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.6141845087202</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>18.40419539413548</v>
@@ -10193,28 +10193,28 @@
         <v>28.72225302648649</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.6141845087202</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>133.2897026299653</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>18.40419539413548</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>59.38730339860322</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>28.72225302648649</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.6141845087202</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>250.9130016233611</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10451,7 +10451,7 @@
         <v>18.40419539413548</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>59.38730339860322</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>28.72225302648649</v>
+        <v>28.72225302648647</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>374.61418450872</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10682,13 +10682,13 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>149.5339603736105</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>18.40419539413546</v>
       </c>
       <c r="R36" t="n">
-        <v>59.38730339860322</v>
+        <v>59.3873033986032</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>102.5176150018519</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>28.72225302648647</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>540.5593534424936</v>
       </c>
       <c r="M39" t="n">
-        <v>374.61418450872</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>27.48033788310575</v>
       </c>
       <c r="K41" t="n">
-        <v>7.872734398718137</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>566.2312102712028</v>
       </c>
       <c r="M41" t="n">
-        <v>517.822892634036</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>540.1823320231591</v>
@@ -11077,7 +11077,7 @@
         <v>551.1953893124531</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>20.02878342173694</v>
       </c>
       <c r="Q41" t="n">
         <v>29.73375328491699</v>
@@ -11141,16 +11141,16 @@
         <v>28.72225302648647</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>547.2901058335655</v>
       </c>
       <c r="M42" t="n">
-        <v>201.9668537442446</v>
+        <v>69.60346473738092</v>
       </c>
       <c r="N42" t="n">
-        <v>518.1761130925354</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>538.0910009432453</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>18.40419539413546</v>
       </c>
       <c r="R42" t="n">
         <v>59.3873033986032</v>
@@ -11305,22 +11305,22 @@
         <v>566.2312102712028</v>
       </c>
       <c r="M44" t="n">
-        <v>543.8084281177191</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>538.4531490757385</v>
+        <v>58.20513069738311</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>551.1953893124531</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>29.73375328491699</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>73.37268743796135</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>547.2901058335655</v>
       </c>
       <c r="M45" t="n">
-        <v>529.0043737794948</v>
+        <v>69.60346473738092</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>316.6638242609076</v>
+        <v>538.0910009432453</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>18.40419539413546</v>
       </c>
       <c r="R45" t="n">
         <v>59.3873033986032</v>
@@ -23260,22 +23260,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.4323500200001</v>
+        <v>285.5077820947337</v>
       </c>
       <c r="H11" t="n">
-        <v>143.5080367828277</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23433,10 +23433,10 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>11.085091836852</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.81614711742</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>232.2142445012334</v>
+        <v>96.73103119478372</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>330.2455195114538</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>117.5793122119586</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>73.86802645690832</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23676,7 +23676,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>110.585143828612</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.9139988557494</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>245.2072248661291</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.9683788729818</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1101823430358</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>183.4520090946479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>59.4110842855503</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0948007089575</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.4274315204514</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>101.2272451126818</v>
       </c>
       <c r="S19" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>231.3249981614665</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>77.43575688150676</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>295.9311666785829</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>140.6310247591007</v>
       </c>
       <c r="T20" t="n">
         <v>216.6134123014268</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1101823430358</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>183.452009094648</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>105.959917639764</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0948007089575</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I22" t="n">
-        <v>117.4274315204514</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>192.4801215700231</v>
       </c>
       <c r="T22" t="n">
-        <v>91.44025590579776</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>343.2172628653771</v>
       </c>
       <c r="H23" t="n">
-        <v>295.9311666785829</v>
+        <v>309.9583408737337</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>140.6310247591007</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>142.8963602881967</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>125.7636242449553</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>101.2272451126818</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T25" t="n">
         <v>231.3249981614665</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>163.4522849553796</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>95.98211168159463</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>140.6310247591007</v>
       </c>
       <c r="T26" t="n">
-        <v>216.6134123014268</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1101823430358</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>42.82098433554688</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0948007089575</v>
+        <v>51.65059029582088</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I28" t="n">
         <v>117.4274315204514</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.2272451126818</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>90.148755754511</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>126.986499963736</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>340.5800797560892</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>95.98211168159463</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>140.6310247591007</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>117.4274315204514</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.48109387843199</v>
+        <v>101.2272451126818</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T31" t="n">
-        <v>231.3249981614665</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>129.3868852712781</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>202.5862381062763</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>295.9311666785828</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>309.9583408737337</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>140.6310247591007</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.6097872701392</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0948007089575</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>117.4274315204514</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>101.2272451126818</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>192.4801215700231</v>
       </c>
       <c r="T34" t="n">
-        <v>231.3249981614665</v>
+        <v>184.1730251338436</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>343.2172628653769</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.50773176145384</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>309.9583408737337</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1101823430358</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0948007089575</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I37" t="n">
         <v>117.4274315204514</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.2272451126818</v>
       </c>
       <c r="S37" t="n">
         <v>192.4801215700231</v>
       </c>
       <c r="T37" t="n">
-        <v>231.3249981614665</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>195.4108366251004</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>184.1730251338437</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>343.2172628653771</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>309.9583408737337</v>
+        <v>199.9490549969883</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>95.9821116815946</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>140.6310247591007</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.10790181598199</v>
       </c>
       <c r="G40" t="n">
         <v>166.0948007089575</v>
       </c>
       <c r="H40" t="n">
-        <v>36.99059767807435</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I40" t="n">
         <v>117.4274315204514</v>
@@ -25599,13 +25599,13 @@
         <v>101.2272451126818</v>
       </c>
       <c r="S40" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>114.7574730935061</v>
       </c>
       <c r="H41" t="n">
-        <v>53.74110182001948</v>
+        <v>309.9583408737337</v>
       </c>
       <c r="I41" t="n">
         <v>95.9821116815946</v>
@@ -25690,10 +25690,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>136.0034749840131</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.6853566714441</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>117.4274315204514</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>101.2272451126818</v>
       </c>
       <c r="S43" t="n">
-        <v>192.4801215700231</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.3249981614665</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5584013321949</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>1.264366871867821</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>159.8673964132026</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>95.9821116815946</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>140.6310247591007</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.6134123014268</v>
       </c>
       <c r="U44" t="n">
         <v>253.1101823430358</v>
       </c>
       <c r="V44" t="n">
-        <v>308.525203497178</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0948007089575</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>149.6853566714441</v>
       </c>
       <c r="I46" t="n">
         <v>117.4274315204514</v>
@@ -26076,22 +26076,22 @@
         <v>192.4801215700231</v>
       </c>
       <c r="T46" t="n">
-        <v>231.3249981614665</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.15550982696897</v>
+        <v>282.5584013321949</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>144.0499115016595</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523793.225526506</v>
+        <v>523793.2255265062</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523793.225526506</v>
+        <v>523793.2255265062</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703550.1486343374</v>
+        <v>703550.1486343376</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703550.1486343376</v>
+        <v>703550.1486343374</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703550.1486343374</v>
+        <v>703550.1486343375</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>517622.2073692481</v>
+        <v>517622.2073692483</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>577062.9698987417</v>
+      </c>
+      <c r="C2" t="n">
         <v>577062.9698987416</v>
       </c>
-      <c r="C2" t="n">
-        <v>577062.9698987418</v>
-      </c>
       <c r="D2" t="n">
-        <v>577062.9698987416</v>
+        <v>577062.9698987417</v>
       </c>
       <c r="E2" t="n">
-        <v>369626.3341660002</v>
+        <v>369626.3341659999</v>
       </c>
       <c r="F2" t="n">
-        <v>369626.334166</v>
+        <v>369626.3341659997</v>
       </c>
       <c r="G2" t="n">
+        <v>502314.5778385261</v>
+      </c>
+      <c r="H2" t="n">
         <v>502314.5778385259</v>
       </c>
-      <c r="H2" t="n">
-        <v>502314.5778385256</v>
-      </c>
       <c r="I2" t="n">
+        <v>502314.577838526</v>
+      </c>
+      <c r="J2" t="n">
+        <v>502314.5778385257</v>
+      </c>
+      <c r="K2" t="n">
         <v>502314.5778385258</v>
       </c>
-      <c r="J2" t="n">
-        <v>502314.5778385256</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>502314.577838526</v>
+      </c>
+      <c r="M2" t="n">
+        <v>502314.5778385258</v>
+      </c>
+      <c r="N2" t="n">
         <v>502314.5778385259</v>
       </c>
-      <c r="L2" t="n">
-        <v>502314.5778385259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>502314.577838526</v>
-      </c>
-      <c r="N2" t="n">
-        <v>502314.5778385258</v>
-      </c>
       <c r="O2" t="n">
+        <v>376215.6152211533</v>
+      </c>
+      <c r="P2" t="n">
         <v>376215.6152211535</v>
-      </c>
-      <c r="P2" t="n">
-        <v>376215.6152211534</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>229585.1879767933</v>
+        <v>229585.1879767934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60167.9093790464</v>
+        <v>60167.90937904643</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>87403.77781903172</v>
+        <v>87403.77781903169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>315487.7702908208</v>
       </c>
       <c r="D4" t="n">
-        <v>315487.7702908207</v>
+        <v>315487.7702908209</v>
       </c>
       <c r="E4" t="n">
         <v>85324.40928676522</v>
       </c>
       <c r="F4" t="n">
-        <v>85324.40928676522</v>
+        <v>85324.40928676525</v>
       </c>
       <c r="G4" t="n">
         <v>107760.9705474763</v>
@@ -26502,7 +26502,7 @@
         <v>72092.64472518323</v>
       </c>
       <c r="M5" t="n">
-        <v>72092.64472518323</v>
+        <v>72092.64472518324</v>
       </c>
       <c r="N5" t="n">
         <v>72092.64472518324</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136900.7604482985</v>
+        <v>136900.7604482986</v>
       </c>
       <c r="C6" t="n">
-        <v>213965.9723195214</v>
+        <v>213965.9723195212</v>
       </c>
       <c r="D6" t="n">
         <v>213965.9723195212</v>
       </c>
       <c r="E6" t="n">
-        <v>21364.29409704538</v>
+        <v>20716.05461038027</v>
       </c>
       <c r="F6" t="n">
-        <v>245748.7785729094</v>
+        <v>245100.5390862442</v>
       </c>
       <c r="G6" t="n">
-        <v>92875.77458907309</v>
+        <v>92642.18586388497</v>
       </c>
       <c r="H6" t="n">
-        <v>322460.9625658661</v>
+        <v>322227.3738406781</v>
       </c>
       <c r="I6" t="n">
-        <v>322460.9625658662</v>
+        <v>322227.3738406783</v>
       </c>
       <c r="J6" t="n">
-        <v>262293.0531868197</v>
+        <v>262059.4644616315</v>
       </c>
       <c r="K6" t="n">
-        <v>322460.9625658663</v>
+        <v>322227.373840678</v>
       </c>
       <c r="L6" t="n">
-        <v>322460.9625658664</v>
+        <v>322227.3738406783</v>
       </c>
       <c r="M6" t="n">
-        <v>235057.1847468347</v>
+        <v>234823.5960216464</v>
       </c>
       <c r="N6" t="n">
-        <v>322460.9625658662</v>
+        <v>322227.3738406782</v>
       </c>
       <c r="O6" t="n">
-        <v>263812.1581411973</v>
+        <v>263184.5101578296</v>
       </c>
       <c r="P6" t="n">
-        <v>263812.1581411972</v>
+        <v>263184.5101578298</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>148.9460117980881</v>
       </c>
       <c r="G3" t="n">
-        <v>264.3588346189018</v>
+        <v>264.3588346189019</v>
       </c>
       <c r="H3" t="n">
-        <v>264.3588346189018</v>
+        <v>264.3588346189019</v>
       </c>
       <c r="I3" t="n">
         <v>264.3588346189019</v>
@@ -26770,7 +26770,7 @@
         <v>264.3588346189019</v>
       </c>
       <c r="M3" t="n">
-        <v>264.3588346189019</v>
+        <v>264.358834618902</v>
       </c>
       <c r="N3" t="n">
         <v>264.358834618902</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>115.4128228208137</v>
+        <v>115.4128228208138</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381511</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>350.7318414593334</v>
+        <v>350.7318414593333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>191.7074240880575</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>168.5701243823575</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>170.6169885120654</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -27523,10 +27523,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>124.6804516710024</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27596,7 +27596,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>153.1331384882551</v>
+        <v>51.68989025907243</v>
       </c>
       <c r="W4" t="n">
         <v>50.53612290998299</v>
@@ -27605,7 +27605,7 @@
         <v>1.778543856695563</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27624,7 +27624,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>168.5967144964697</v>
+        <v>217.7646847751363</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>112.3137816653615</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>11.77552588739211</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -27754,13 +27754,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>117.2720972725741</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>68.3126778065913</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>44.23937566409677</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27855,19 +27855,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>217.7646847751364</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>90.88124479102308</v>
@@ -27912,13 +27912,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>148.8616083871553</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
@@ -27949,10 +27949,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>189.4407928460044</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>63.23325653666868</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>68.2332193153226</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.59459708236864</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -31837,7 +31837,7 @@
         <v>3.094142622447076</v>
       </c>
       <c r="I12" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J12" t="n">
         <v>30.26835886926997</v>
@@ -32074,7 +32074,7 @@
         <v>3.094142622447076</v>
       </c>
       <c r="I15" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J15" t="n">
         <v>30.26835886926997</v>
@@ -32232,43 +32232,43 @@
         <v>10.88387905544051</v>
       </c>
       <c r="I17" t="n">
-        <v>40.97163405686518</v>
+        <v>40.97163405686519</v>
       </c>
       <c r="J17" t="n">
-        <v>90.19950005924026</v>
+        <v>90.19950005924031</v>
       </c>
       <c r="K17" t="n">
-        <v>135.1856687805191</v>
+        <v>135.1856687805192</v>
       </c>
       <c r="L17" t="n">
         <v>167.7097760567733</v>
       </c>
       <c r="M17" t="n">
-        <v>186.6094400774924</v>
+        <v>186.6094400774925</v>
       </c>
       <c r="N17" t="n">
-        <v>189.6289759121093</v>
+        <v>189.6289759121094</v>
       </c>
       <c r="O17" t="n">
-        <v>179.0612647091276</v>
+        <v>179.0612647091277</v>
       </c>
       <c r="P17" t="n">
-        <v>152.8246467004677</v>
+        <v>152.8246467004678</v>
       </c>
       <c r="Q17" t="n">
         <v>114.7649451334751</v>
       </c>
       <c r="R17" t="n">
-        <v>66.75791214122448</v>
+        <v>66.75791214122451</v>
       </c>
       <c r="S17" t="n">
-        <v>24.2173947492592</v>
+        <v>24.21739474925921</v>
       </c>
       <c r="T17" t="n">
-        <v>4.652184114750723</v>
+        <v>4.652184114750725</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08501992671160652</v>
+        <v>0.08501992671160655</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5686208895576378</v>
+        <v>0.568620889557638</v>
       </c>
       <c r="H18" t="n">
-        <v>5.491680696517187</v>
+        <v>5.491680696517189</v>
       </c>
       <c r="I18" t="n">
-        <v>19.57751746941867</v>
+        <v>19.57751746941868</v>
       </c>
       <c r="J18" t="n">
-        <v>53.72220430684683</v>
+        <v>53.72220430684686</v>
       </c>
       <c r="K18" t="n">
-        <v>91.81980390720855</v>
+        <v>91.81980390720859</v>
       </c>
       <c r="L18" t="n">
-        <v>123.4630576208371</v>
+        <v>123.4630576208372</v>
       </c>
       <c r="M18" t="n">
-        <v>144.0755648673014</v>
+        <v>144.0755648673015</v>
       </c>
       <c r="N18" t="n">
-        <v>147.8888163591156</v>
+        <v>147.8888163591157</v>
       </c>
       <c r="O18" t="n">
         <v>135.289374543128</v>
       </c>
       <c r="P18" t="n">
-        <v>108.5816503928089</v>
+        <v>108.581650392809</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.58395776177846</v>
+        <v>72.58395776177851</v>
       </c>
       <c r="R18" t="n">
-        <v>35.30437417797335</v>
+        <v>35.30437417797337</v>
       </c>
       <c r="S18" t="n">
         <v>10.56188362840612</v>
@@ -32347,7 +32347,7 @@
         <v>2.291941217120478</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0374092690498446</v>
+        <v>0.03740926904984462</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4767126525914622</v>
+        <v>0.4767126525914623</v>
       </c>
       <c r="H19" t="n">
-        <v>4.238408856676821</v>
+        <v>4.238408856676823</v>
       </c>
       <c r="I19" t="n">
-        <v>14.33604958884143</v>
+        <v>14.33604958884144</v>
       </c>
       <c r="J19" t="n">
-        <v>33.70358453821638</v>
+        <v>33.70358453821639</v>
       </c>
       <c r="K19" t="n">
-        <v>55.3853427283535</v>
+        <v>55.38534272835352</v>
       </c>
       <c r="L19" t="n">
-        <v>70.87417018618885</v>
+        <v>70.87417018618888</v>
       </c>
       <c r="M19" t="n">
-        <v>74.72687516940528</v>
+        <v>74.72687516940532</v>
       </c>
       <c r="N19" t="n">
-        <v>72.95003710065535</v>
+        <v>72.95003710065538</v>
       </c>
       <c r="O19" t="n">
-        <v>67.38116656810961</v>
+        <v>67.38116656810963</v>
       </c>
       <c r="P19" t="n">
-        <v>57.65622845524373</v>
+        <v>57.65622845524375</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.91818402745417</v>
+        <v>39.91818402745418</v>
       </c>
       <c r="R19" t="n">
-        <v>21.43473436106701</v>
+        <v>21.43473436106702</v>
       </c>
       <c r="S19" t="n">
-        <v>8.307801409253024</v>
+        <v>8.307801409253027</v>
       </c>
       <c r="T19" t="n">
-        <v>2.036863151981701</v>
+        <v>2.036863151981702</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02600250832317069</v>
+        <v>0.0260025083231707</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,25 +32469,25 @@
         <v>10.88387905544051</v>
       </c>
       <c r="I20" t="n">
-        <v>40.97163405686518</v>
+        <v>40.97163405686519</v>
       </c>
       <c r="J20" t="n">
-        <v>90.19950005924029</v>
+        <v>90.19950005924031</v>
       </c>
       <c r="K20" t="n">
-        <v>135.1856687805191</v>
+        <v>135.1856687805192</v>
       </c>
       <c r="L20" t="n">
         <v>167.7097760567733</v>
       </c>
       <c r="M20" t="n">
-        <v>186.6094400774924</v>
+        <v>186.6094400774925</v>
       </c>
       <c r="N20" t="n">
         <v>189.6289759121094</v>
       </c>
       <c r="O20" t="n">
-        <v>179.0612647091276</v>
+        <v>179.0612647091277</v>
       </c>
       <c r="P20" t="n">
         <v>152.8246467004678</v>
@@ -32496,16 +32496,16 @@
         <v>114.7649451334751</v>
       </c>
       <c r="R20" t="n">
-        <v>66.75791214122449</v>
+        <v>66.75791214122451</v>
       </c>
       <c r="S20" t="n">
-        <v>24.2173947492592</v>
+        <v>24.21739474925921</v>
       </c>
       <c r="T20" t="n">
-        <v>4.652184114750724</v>
+        <v>4.652184114750725</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08501992671160653</v>
+        <v>0.08501992671160655</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5686208895576379</v>
+        <v>0.568620889557638</v>
       </c>
       <c r="H21" t="n">
-        <v>5.491680696517188</v>
+        <v>5.491680696517189</v>
       </c>
       <c r="I21" t="n">
         <v>19.57751746941868</v>
       </c>
       <c r="J21" t="n">
-        <v>53.72220430684684</v>
+        <v>53.72220430684686</v>
       </c>
       <c r="K21" t="n">
-        <v>91.81980390720858</v>
+        <v>91.81980390720859</v>
       </c>
       <c r="L21" t="n">
-        <v>123.4630576208371</v>
+        <v>123.4630576208372</v>
       </c>
       <c r="M21" t="n">
         <v>144.0755648673015</v>
@@ -32572,10 +32572,10 @@
         <v>108.581650392809</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.58395776177849</v>
+        <v>72.58395776177851</v>
       </c>
       <c r="R21" t="n">
-        <v>35.30437417797336</v>
+        <v>35.30437417797337</v>
       </c>
       <c r="S21" t="n">
         <v>10.56188362840612</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4767126525914622</v>
+        <v>0.4767126525914623</v>
       </c>
       <c r="H22" t="n">
-        <v>4.238408856676822</v>
+        <v>4.238408856676823</v>
       </c>
       <c r="I22" t="n">
-        <v>14.33604958884143</v>
+        <v>14.33604958884144</v>
       </c>
       <c r="J22" t="n">
-        <v>33.70358453821638</v>
+        <v>33.70358453821639</v>
       </c>
       <c r="K22" t="n">
-        <v>55.38534272835351</v>
+        <v>55.38534272835352</v>
       </c>
       <c r="L22" t="n">
-        <v>70.87417018618886</v>
+        <v>70.87417018618888</v>
       </c>
       <c r="M22" t="n">
-        <v>74.72687516940529</v>
+        <v>74.72687516940532</v>
       </c>
       <c r="N22" t="n">
-        <v>72.95003710065536</v>
+        <v>72.95003710065538</v>
       </c>
       <c r="O22" t="n">
-        <v>67.38116656810962</v>
+        <v>67.38116656810963</v>
       </c>
       <c r="P22" t="n">
-        <v>57.65622845524374</v>
+        <v>57.65622845524375</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.91818402745417</v>
+        <v>39.91818402745418</v>
       </c>
       <c r="R22" t="n">
         <v>21.43473436106702</v>
       </c>
       <c r="S22" t="n">
-        <v>8.307801409253026</v>
+        <v>8.307801409253027</v>
       </c>
       <c r="T22" t="n">
         <v>2.036863151981702</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.062749083895082</v>
+        <v>1.062749083895083</v>
       </c>
       <c r="H35" t="n">
-        <v>10.88387905544051</v>
+        <v>10.88387905544052</v>
       </c>
       <c r="I35" t="n">
-        <v>40.97163405686519</v>
+        <v>40.97163405686521</v>
       </c>
       <c r="J35" t="n">
-        <v>90.19950005924031</v>
+        <v>90.19950005924035</v>
       </c>
       <c r="K35" t="n">
         <v>135.1856687805192</v>
       </c>
       <c r="L35" t="n">
-        <v>167.7097760567733</v>
+        <v>167.7097760567734</v>
       </c>
       <c r="M35" t="n">
-        <v>186.6094400774925</v>
+        <v>186.6094400774926</v>
       </c>
       <c r="N35" t="n">
-        <v>189.6289759121094</v>
+        <v>189.6289759121095</v>
       </c>
       <c r="O35" t="n">
         <v>179.0612647091277</v>
       </c>
       <c r="P35" t="n">
-        <v>152.8246467004678</v>
+        <v>152.8246467004679</v>
       </c>
       <c r="Q35" t="n">
-        <v>114.7649451334751</v>
+        <v>114.7649451334752</v>
       </c>
       <c r="R35" t="n">
-        <v>66.75791214122451</v>
+        <v>66.75791214122454</v>
       </c>
       <c r="S35" t="n">
-        <v>24.21739474925921</v>
+        <v>24.21739474925922</v>
       </c>
       <c r="T35" t="n">
-        <v>4.652184114750725</v>
+        <v>4.652184114750726</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08501992671160655</v>
+        <v>0.08501992671160659</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.568620889557638</v>
+        <v>0.5686208895576382</v>
       </c>
       <c r="H36" t="n">
-        <v>5.491680696517189</v>
+        <v>5.491680696517191</v>
       </c>
       <c r="I36" t="n">
-        <v>19.57751746941868</v>
+        <v>19.57751746941869</v>
       </c>
       <c r="J36" t="n">
-        <v>53.72220430684686</v>
+        <v>53.72220430684688</v>
       </c>
       <c r="K36" t="n">
-        <v>91.81980390720859</v>
+        <v>91.81980390720864</v>
       </c>
       <c r="L36" t="n">
         <v>123.4630576208372</v>
       </c>
       <c r="M36" t="n">
-        <v>144.0755648673015</v>
+        <v>144.0755648673016</v>
       </c>
       <c r="N36" t="n">
-        <v>147.8888163591157</v>
+        <v>147.8888163591158</v>
       </c>
       <c r="O36" t="n">
-        <v>135.289374543128</v>
+        <v>135.2893745431281</v>
       </c>
       <c r="P36" t="n">
         <v>108.581650392809</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.58395776177851</v>
+        <v>72.58395776177854</v>
       </c>
       <c r="R36" t="n">
-        <v>35.30437417797337</v>
+        <v>35.30437417797338</v>
       </c>
       <c r="S36" t="n">
-        <v>10.56188362840612</v>
+        <v>10.56188362840613</v>
       </c>
       <c r="T36" t="n">
-        <v>2.291941217120478</v>
+        <v>2.29194121712048</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03740926904984462</v>
+        <v>0.03740926904984464</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4767126525914623</v>
+        <v>0.4767126525914626</v>
       </c>
       <c r="H37" t="n">
-        <v>4.238408856676823</v>
+        <v>4.238408856676824</v>
       </c>
       <c r="I37" t="n">
         <v>14.33604958884144</v>
       </c>
       <c r="J37" t="n">
-        <v>33.70358453821639</v>
+        <v>33.7035845382164</v>
       </c>
       <c r="K37" t="n">
-        <v>55.38534272835352</v>
+        <v>55.38534272835355</v>
       </c>
       <c r="L37" t="n">
-        <v>70.87417018618888</v>
+        <v>70.87417018618891</v>
       </c>
       <c r="M37" t="n">
-        <v>74.72687516940532</v>
+        <v>74.72687516940535</v>
       </c>
       <c r="N37" t="n">
-        <v>72.95003710065538</v>
+        <v>72.95003710065541</v>
       </c>
       <c r="O37" t="n">
-        <v>67.38116656810963</v>
+        <v>67.38116656810966</v>
       </c>
       <c r="P37" t="n">
-        <v>57.65622845524375</v>
+        <v>57.65622845524378</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.91818402745418</v>
+        <v>39.9181840274542</v>
       </c>
       <c r="R37" t="n">
-        <v>21.43473436106702</v>
+        <v>21.43473436106703</v>
       </c>
       <c r="S37" t="n">
-        <v>8.307801409253027</v>
+        <v>8.307801409253031</v>
       </c>
       <c r="T37" t="n">
-        <v>2.036863151981702</v>
+        <v>2.036863151981703</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0260025083231707</v>
+        <v>0.02600250832317072</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>74.55874088122788</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
@@ -35026,7 +35026,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
-        <v>220.6696226073168</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L8" t="n">
-        <v>229.9609751381512</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="M8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>438.7752394197637</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>580.6928165974845</v>
+        <v>154.7419524112181</v>
       </c>
       <c r="M11" t="n">
         <v>580.6928165974845</v>
@@ -35424,10 +35424,10 @@
         <v>580.6928165974845</v>
       </c>
       <c r="O11" t="n">
-        <v>118.4552411535799</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L12" t="n">
-        <v>86.33445969487369</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M12" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="N12" t="n">
-        <v>580.6928165974845</v>
+        <v>37.37728531538383</v>
       </c>
       <c r="O12" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K14" t="n">
-        <v>438.7752394197637</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="M14" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>580.6928165974845</v>
+        <v>287.1293904206652</v>
       </c>
       <c r="O14" t="n">
-        <v>118.4552411535799</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K15" t="n">
         <v>374.7022807871404</v>
@@ -35734,19 +35734,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M15" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.2084216043379</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>580.6928165974845</v>
+        <v>473.5441852458946</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>236.3103817853292</v>
+        <v>236.3103817853293</v>
       </c>
       <c r="K17" t="n">
-        <v>497.7941092122987</v>
+        <v>497.7941092122988</v>
       </c>
       <c r="L17" t="n">
         <v>666.0131010249843</v>
       </c>
       <c r="M17" t="n">
-        <v>738.1255007285839</v>
+        <v>738.125500728584</v>
       </c>
       <c r="N17" t="n">
         <v>722.7716866570205</v>
       </c>
       <c r="O17" t="n">
-        <v>623.5457100549139</v>
+        <v>623.545710054914</v>
       </c>
       <c r="P17" t="n">
-        <v>504.5291842070554</v>
+        <v>504.5291842070556</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.4776321445342</v>
+        <v>301.4776321445343</v>
       </c>
       <c r="R17" t="n">
-        <v>29.1449275638912</v>
+        <v>29.14492756389123</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.222868573875203</v>
+        <v>376.8370530825954</v>
       </c>
       <c r="L18" t="n">
         <v>611.9136494373151</v>
       </c>
       <c r="M18" t="n">
-        <v>51.68844281798953</v>
+        <v>51.68844281798958</v>
       </c>
       <c r="N18" t="n">
-        <v>437.1308880136715</v>
+        <v>62.51670350494902</v>
       </c>
       <c r="O18" t="n">
         <v>657.0270337259371</v>
       </c>
       <c r="P18" t="n">
-        <v>518.3002046517962</v>
+        <v>518.3002046517963</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.629097066057305</v>
+        <v>3.629097066057319</v>
       </c>
       <c r="K19" t="n">
         <v>138.0470004151635</v>
       </c>
       <c r="L19" t="n">
-        <v>236.6596650082088</v>
+        <v>236.6596650082089</v>
       </c>
       <c r="M19" t="n">
-        <v>262.9001866221972</v>
+        <v>262.9001866221973</v>
       </c>
       <c r="N19" t="n">
         <v>257.9900714756142</v>
@@ -36062,7 +36062,7 @@
         <v>178.7432645932019</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.37494803760665</v>
+        <v>43.37494803760666</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>236.3103817853293</v>
       </c>
       <c r="K20" t="n">
-        <v>497.7941092122987</v>
+        <v>497.7941092122988</v>
       </c>
       <c r="L20" t="n">
         <v>666.0131010249843</v>
       </c>
       <c r="M20" t="n">
-        <v>738.1255007285839</v>
+        <v>738.125500728584</v>
       </c>
       <c r="N20" t="n">
         <v>722.7716866570205</v>
       </c>
       <c r="O20" t="n">
-        <v>623.5457100549139</v>
+        <v>623.545710054914</v>
       </c>
       <c r="P20" t="n">
-        <v>504.5291842070554</v>
+        <v>504.5291842070556</v>
       </c>
       <c r="Q20" t="n">
         <v>301.4776321445343</v>
       </c>
       <c r="R20" t="n">
-        <v>29.14492756389122</v>
+        <v>29.14492756389123</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.222868573875232</v>
+        <v>376.8370530825954</v>
       </c>
       <c r="L21" t="n">
         <v>611.9136494373151</v>
       </c>
       <c r="M21" t="n">
-        <v>778.1883422679896</v>
+        <v>51.68844281798958</v>
       </c>
       <c r="N21" t="n">
-        <v>207.4329076419716</v>
+        <v>62.51670350494902</v>
       </c>
       <c r="O21" t="n">
         <v>657.0270337259371</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4982855734943</v>
+        <v>518.3002046517963</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.629097066057312</v>
+        <v>3.629097066057319</v>
       </c>
       <c r="K22" t="n">
         <v>138.0470004151635</v>
       </c>
       <c r="L22" t="n">
-        <v>236.6596650082088</v>
+        <v>236.6596650082089</v>
       </c>
       <c r="M22" t="n">
-        <v>262.9001866221972</v>
+        <v>262.9001866221973</v>
       </c>
       <c r="N22" t="n">
         <v>257.9900714756142</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>167.9797621045513</v>
       </c>
       <c r="K24" t="n">
-        <v>2.222868573875246</v>
+        <v>414.7886383134979</v>
       </c>
       <c r="L24" t="n">
         <v>611.9136494373151</v>
       </c>
       <c r="M24" t="n">
-        <v>426.3026273267097</v>
+        <v>51.68844281798958</v>
       </c>
       <c r="N24" t="n">
         <v>62.51670350494902</v>
       </c>
       <c r="O24" t="n">
-        <v>657.0270337259371</v>
+        <v>626.9547304879394</v>
       </c>
       <c r="P24" t="n">
-        <v>518.3002046517963</v>
+        <v>21.49828557349433</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>309.3163734737891</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>11.62650150705726</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.56731823277707</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2.222868573875246</v>
+        <v>376.8370530825954</v>
       </c>
       <c r="L27" t="n">
         <v>611.9136494373151</v>
       </c>
       <c r="M27" t="n">
-        <v>778.1883422679896</v>
+        <v>51.68844281798958</v>
       </c>
       <c r="N27" t="n">
-        <v>810.2908074808926</v>
+        <v>62.51670350494902</v>
       </c>
       <c r="O27" t="n">
-        <v>42.60181565423913</v>
+        <v>657.0270337259371</v>
       </c>
       <c r="P27" t="n">
-        <v>21.49828557349433</v>
+        <v>518.3002046517963</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.222868573875246</v>
+        <v>376.8370530825954</v>
       </c>
       <c r="L30" t="n">
         <v>611.9136494373151</v>
       </c>
       <c r="M30" t="n">
-        <v>778.1883422679896</v>
+        <v>51.68844281798958</v>
       </c>
       <c r="N30" t="n">
-        <v>195.8064061349143</v>
+        <v>62.51670350494902</v>
       </c>
       <c r="O30" t="n">
         <v>657.0270337259371</v>
       </c>
       <c r="P30" t="n">
-        <v>21.49828557349433</v>
+        <v>518.3002046517963</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.62650150705726</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.222868573875246</v>
+        <v>376.8370530825954</v>
       </c>
       <c r="L33" t="n">
         <v>611.9136494373151</v>
       </c>
       <c r="M33" t="n">
-        <v>778.1883422679896</v>
+        <v>51.68844281798958</v>
       </c>
       <c r="N33" t="n">
         <v>62.51670350494902</v>
       </c>
       <c r="O33" t="n">
-        <v>293.5148172776002</v>
+        <v>657.0270337259371</v>
       </c>
       <c r="P33" t="n">
         <v>518.3002046517963</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.62650150705726</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>236.3103817853293</v>
+        <v>236.3103817853294</v>
       </c>
       <c r="K35" t="n">
         <v>497.7941092122988</v>
       </c>
       <c r="L35" t="n">
-        <v>666.0131010249843</v>
+        <v>666.0131010249844</v>
       </c>
       <c r="M35" t="n">
         <v>738.125500728584</v>
       </c>
       <c r="N35" t="n">
-        <v>722.7716866570205</v>
+        <v>722.7716866570206</v>
       </c>
       <c r="O35" t="n">
         <v>623.545710054914</v>
@@ -37329,7 +37329,7 @@
         <v>301.4776321445343</v>
       </c>
       <c r="R35" t="n">
-        <v>29.14492756389123</v>
+        <v>29.14492756389126</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>414.7886383134979</v>
+        <v>376.8370530825953</v>
       </c>
       <c r="L36" t="n">
-        <v>611.9136494373151</v>
+        <v>611.9136494373153</v>
       </c>
       <c r="M36" t="n">
-        <v>51.68844281798958</v>
+        <v>51.68844281798967</v>
       </c>
       <c r="N36" t="n">
-        <v>62.51670350494902</v>
+        <v>62.51670350494911</v>
       </c>
       <c r="O36" t="n">
         <v>657.0270337259371</v>
       </c>
       <c r="P36" t="n">
-        <v>171.0322459471048</v>
+        <v>518.3002046517963</v>
       </c>
       <c r="Q36" t="n">
-        <v>309.3163734737891</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.629097066057319</v>
+        <v>3.629097066057334</v>
       </c>
       <c r="K37" t="n">
         <v>138.0470004151635</v>
@@ -37481,10 +37481,10 @@
         <v>231.7294161051885</v>
       </c>
       <c r="P37" t="n">
-        <v>178.7432645932019</v>
+        <v>178.743264593202</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.37494803760666</v>
+        <v>43.37494803760669</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>301.4776321445343</v>
       </c>
       <c r="R38" t="n">
-        <v>29.14492756389126</v>
+        <v>29.14492756389051</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2.222868573875289</v>
+        <v>414.7886383134979</v>
       </c>
       <c r="L39" t="n">
-        <v>611.9136494373153</v>
+        <v>573.9620642064126</v>
       </c>
       <c r="M39" t="n">
-        <v>426.3026273267096</v>
+        <v>51.68844281798967</v>
       </c>
       <c r="N39" t="n">
         <v>62.51670350494911</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>497.7941092122988</v>
       </c>
       <c r="L41" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="M41" t="n">
-        <v>554.7072811138013</v>
+        <v>36.88438847976531</v>
       </c>
       <c r="N41" t="n">
         <v>580.6928165974845</v>
@@ -37797,7 +37797,7 @@
         <v>580.6928165974845</v>
       </c>
       <c r="P41" t="n">
-        <v>2.523199459542667</v>
+        <v>22.5519828812796</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2.222868573875289</v>
+        <v>414.7886383134979</v>
       </c>
       <c r="L42" t="n">
-        <v>33.40271076391899</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="M42" t="n">
-        <v>253.6552965622342</v>
+        <v>121.2919075553706</v>
       </c>
       <c r="N42" t="n">
-        <v>580.6928165974845</v>
+        <v>62.51670350494911</v>
       </c>
       <c r="O42" t="n">
         <v>580.6928165974845</v>
@@ -37879,7 +37879,7 @@
         <v>518.3002046517963</v>
       </c>
       <c r="Q42" t="n">
-        <v>309.3163734737892</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>580.6928165974845</v>
       </c>
       <c r="M44" t="n">
+        <v>36.88438847976531</v>
+      </c>
+      <c r="N44" t="n">
+        <v>98.71561527170849</v>
+      </c>
+      <c r="O44" t="n">
         <v>580.6928165974845</v>
       </c>
-      <c r="N44" t="n">
-        <v>578.9636336500638</v>
-      </c>
-      <c r="O44" t="n">
-        <v>29.49742728503134</v>
-      </c>
       <c r="P44" t="n">
-        <v>2.523199459542667</v>
+        <v>504.5291842070556</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>29.14492756389126</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>414.7886383134979</v>
       </c>
       <c r="L45" t="n">
-        <v>33.40271076391899</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="M45" t="n">
-        <v>580.6928165974845</v>
+        <v>121.2919075553706</v>
       </c>
       <c r="N45" t="n">
         <v>62.51670350494911</v>
       </c>
       <c r="O45" t="n">
-        <v>359.2656399151468</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="P45" t="n">
         <v>518.3002046517963</v>
       </c>
       <c r="Q45" t="n">
-        <v>309.3163734737892</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
